--- a/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65955958319732</v>
+        <v>17.65955958319726</v>
       </c>
       <c r="C2">
-        <v>16.00898859053738</v>
+        <v>16.00898859053726</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.662106326707601</v>
+        <v>6.662106326707537</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>35.71369848122858</v>
+        <v>35.71369848122825</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>16.8179528057033</v>
+        <v>16.81795280570323</v>
       </c>
       <c r="K2">
         <v>10.02868308711981</v>
       </c>
       <c r="L2">
-        <v>14.08867629878056</v>
+        <v>14.08867629878048</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.36718407024814</v>
+        <v>16.36718407024809</v>
       </c>
       <c r="C3">
-        <v>14.82944126245332</v>
+        <v>14.82944126245343</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.481056059597368</v>
+        <v>6.48105605959741</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>34.05292013396625</v>
+        <v>34.05292013396631</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>15.60289785680591</v>
       </c>
       <c r="K3">
-        <v>9.531197040188735</v>
+        <v>9.531197040188733</v>
       </c>
       <c r="L3">
-        <v>13.09584665356462</v>
+        <v>13.09584665356457</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.53619775127606</v>
+        <v>15.53619775127623</v>
       </c>
       <c r="C4">
-        <v>14.07229996922122</v>
+        <v>14.0722999692213</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.372390856383288</v>
+        <v>6.372390856383355</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>33.02067547677989</v>
+        <v>33.02067547677996</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.82163602719349</v>
+        <v>14.82163602719363</v>
       </c>
       <c r="K4">
-        <v>9.222654900061608</v>
+        <v>9.222654900061652</v>
       </c>
       <c r="L4">
-        <v>12.4575414478969</v>
+        <v>12.45754144789699</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.1879318750373</v>
+        <v>15.18793187503728</v>
       </c>
       <c r="C5">
-        <v>13.75528587533899</v>
+        <v>13.75528587533891</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -538,25 +538,25 @@
         <v>6.328748204272499</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>32.59706815086744</v>
+        <v>32.59706815086741</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.49419801999195</v>
+        <v>14.4941980199919</v>
       </c>
       <c r="K5">
-        <v>9.096244792737011</v>
+        <v>9.096244792737036</v>
       </c>
       <c r="L5">
-        <v>12.25882932320081</v>
+        <v>12.25882932320083</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.12951500064093</v>
+        <v>15.12951500064103</v>
       </c>
       <c r="C6">
-        <v>13.70212868842939</v>
+        <v>13.70212868842948</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.321540353213924</v>
+        <v>6.321540353213859</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>32.5265568090723</v>
+        <v>32.52655680907245</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.43927361664282</v>
+        <v>14.43927361664289</v>
       </c>
       <c r="K6">
-        <v>9.075217084164263</v>
+        <v>9.075217084164249</v>
       </c>
       <c r="L6">
-        <v>12.22815315380767</v>
+        <v>12.22815315380763</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.5315401827589</v>
+        <v>15.53154018275893</v>
       </c>
       <c r="C7">
-        <v>14.06805916418579</v>
+        <v>14.06805916418564</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.37179967159498</v>
+        <v>6.371799671595054</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>33.01497423406659</v>
+        <v>33.0149742340667</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.81725706752081</v>
+        <v>14.81725706752078</v>
       </c>
       <c r="K7">
-        <v>9.220952676669935</v>
+        <v>9.220952676669953</v>
       </c>
       <c r="L7">
-        <v>12.45396403775998</v>
+        <v>12.45396403775993</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.2215899220956</v>
+        <v>17.22158992209554</v>
       </c>
       <c r="C8">
-        <v>15.60898010053997</v>
+        <v>15.60898010053984</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.599166389643381</v>
+        <v>6.599166389643394</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>35.143748253593</v>
+        <v>35.14374825359305</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.4061768653106</v>
+        <v>16.40617686531055</v>
       </c>
       <c r="K8">
-        <v>9.857839630881623</v>
+        <v>9.857839630881587</v>
       </c>
       <c r="L8">
-        <v>13.75220586456358</v>
+        <v>13.7522058645635</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.24923633475159</v>
+        <v>20.24923633475161</v>
       </c>
       <c r="C9">
-        <v>18.38000186208173</v>
+        <v>18.38000186208174</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.064676445055011</v>
+        <v>7.064676445055025</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39.21529051288183</v>
+        <v>39.21529051288168</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>19.25323541082711</v>
       </c>
       <c r="K9">
-        <v>11.07965161422113</v>
+        <v>11.07965161422111</v>
       </c>
       <c r="L9">
-        <v>16.07832452303688</v>
+        <v>16.07832452303692</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.31592231766182</v>
+        <v>22.31592231766193</v>
       </c>
       <c r="C10">
-        <v>20.27945045355302</v>
+        <v>20.279450453553</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.418982036210115</v>
+        <v>7.418982036210185</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.14647315312226</v>
+        <v>42.14647315312239</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.19768378907503</v>
+        <v>21.19768378907508</v>
       </c>
       <c r="K10">
-        <v>11.95982544989461</v>
+        <v>11.95982544989465</v>
       </c>
       <c r="L10">
-        <v>17.66607132054115</v>
+        <v>17.66607132054117</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.2263215069001</v>
+        <v>23.22632150690012</v>
       </c>
       <c r="C11">
         <v>21.11829720763481</v>
@@ -763,28 +763,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.583114599569724</v>
+        <v>7.583114599569749</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43.46973124376735</v>
+        <v>43.46973124376733</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.05460842923993</v>
+        <v>22.05460842923996</v>
       </c>
       <c r="K11">
-        <v>12.44119769192817</v>
+        <v>12.44119769192811</v>
       </c>
       <c r="L11">
-        <v>18.36538800253891</v>
+        <v>18.3653880025389</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.56722687657666</v>
+        <v>23.56722687657668</v>
       </c>
       <c r="C12">
-        <v>21.43275136539057</v>
+        <v>21.43275136539058</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.645733571735086</v>
+        <v>7.645733571735135</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43.96975804160751</v>
+        <v>43.96975804160749</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.3755565498741</v>
+        <v>22.37555654987411</v>
       </c>
       <c r="K12">
         <v>12.62344587150153</v>
       </c>
       <c r="L12">
-        <v>18.62722764791353</v>
+        <v>18.6272276479135</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.49397006832847</v>
+        <v>23.49397006832853</v>
       </c>
       <c r="C13">
-        <v>21.36516274384064</v>
+        <v>21.36516274384051</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.63222592305185</v>
+        <v>7.632225923051865</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.30658514489425</v>
+        <v>22.30658514489423</v>
       </c>
       <c r="K13">
-        <v>12.58428355930619</v>
+        <v>12.58428355930621</v>
       </c>
       <c r="L13">
-        <v>18.57096245044264</v>
+        <v>18.57096245044266</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.25444228416921</v>
+        <v>23.25444228416938</v>
       </c>
       <c r="C14">
-        <v>21.1442289520864</v>
+        <v>21.14422895208623</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.588256677672443</v>
+        <v>7.588256677672435</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43.51088723921051</v>
+        <v>43.51088723921042</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.08108154311628</v>
+        <v>22.08108154311633</v>
       </c>
       <c r="K14">
-        <v>12.45623142510197</v>
+        <v>12.45623142510193</v>
       </c>
       <c r="L14">
-        <v>18.38698731732265</v>
+        <v>18.38698731732266</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.10723817756971</v>
+        <v>23.10723817756976</v>
       </c>
       <c r="C15">
-        <v>21.00849791205943</v>
+        <v>21.00849791205931</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.561386360404697</v>
+        <v>7.561386360404781</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.29563053721903</v>
+        <v>43.29563053721879</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>21.94250526185861</v>
       </c>
       <c r="K15">
-        <v>12.37753354529891</v>
+        <v>12.37753354529879</v>
       </c>
       <c r="L15">
-        <v>18.27392012254822</v>
+        <v>18.27392012254818</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.25586264962866</v>
+        <v>22.25586264962864</v>
       </c>
       <c r="C16">
         <v>20.22415737721186</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.408318156837505</v>
+        <v>7.4083181568375</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.05982155387242</v>
+        <v>42.05982155387246</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.14116056354507</v>
+        <v>21.14116056354506</v>
       </c>
       <c r="K16">
-        <v>11.93381105449861</v>
+        <v>11.93381105449863</v>
       </c>
       <c r="L16">
-        <v>17.61993402204561</v>
+        <v>17.6199340220456</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.72624132966542</v>
+        <v>21.72624132966544</v>
       </c>
       <c r="C17">
-        <v>19.73681382800744</v>
+        <v>19.73681382800758</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.315196682246143</v>
+        <v>7.315196682246161</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.29933082050838</v>
+        <v>41.29933082050874</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.64276840226946</v>
+        <v>20.64276840226949</v>
       </c>
       <c r="K17">
         <v>11.7054777622756</v>
       </c>
       <c r="L17">
-        <v>17.21307083309721</v>
+        <v>17.21307083309718</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.41878769318674</v>
+        <v>21.4187876931868</v>
       </c>
       <c r="C18">
-        <v>19.45410347074618</v>
+        <v>19.45410347074617</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.261910685443003</v>
+        <v>7.261910685443001</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.86092910783833</v>
+        <v>40.86092910783842</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.35347863868693</v>
+        <v>20.35347863868695</v>
       </c>
       <c r="K18">
-        <v>11.57383641912377</v>
+        <v>11.57383641912376</v>
       </c>
       <c r="L18">
-        <v>16.97687094656889</v>
+        <v>16.97687094656892</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.31419103099144</v>
+        <v>21.31419103099148</v>
       </c>
       <c r="C19">
         <v>19.35795787466941</v>
@@ -1067,28 +1067,28 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.243915236928139</v>
+        <v>7.243915236928154</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.71231441346188</v>
+        <v>40.71231441346186</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.25506697658732</v>
+        <v>20.25506697658737</v>
       </c>
       <c r="K19">
-        <v>11.52920933250367</v>
+        <v>11.52920933250368</v>
       </c>
       <c r="L19">
-        <v>16.89651368952381</v>
+        <v>16.89651368952384</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.78291032477467</v>
+        <v>21.78291032477457</v>
       </c>
       <c r="C20">
-        <v>19.788938219722</v>
+        <v>19.78893821972198</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.325080920882991</v>
+        <v>7.325080920882969</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.38038614330132</v>
+        <v>41.38038614330104</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.69609221976802</v>
+        <v>20.69609221976795</v>
       </c>
       <c r="K20">
-        <v>11.72981573686585</v>
+        <v>11.72981573686582</v>
       </c>
       <c r="L20">
-        <v>17.2566058435026</v>
+        <v>17.25660584350253</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.32489789636057</v>
+        <v>23.32489789636054</v>
       </c>
       <c r="C21">
-        <v>21.20920562328318</v>
+        <v>21.2092056232832</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.601158469347803</v>
+        <v>7.601158469347761</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.61407412392163</v>
+        <v>43.61407412392189</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.14741010486676</v>
+        <v>22.14741010486673</v>
       </c>
       <c r="K21">
-        <v>12.49389764440049</v>
+        <v>12.49389764440051</v>
       </c>
       <c r="L21">
         <v>18.441103210555</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.31052971160696</v>
+        <v>24.31052971160706</v>
       </c>
       <c r="C22">
-        <v>22.11903853134866</v>
+        <v>22.11903853134868</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.784336402768923</v>
+        <v>7.784336402768906</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.06802036829753</v>
+        <v>45.06802036829762</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.07547962496356</v>
+        <v>23.07547962496359</v>
       </c>
       <c r="K22">
-        <v>13.02077817312418</v>
+        <v>13.02077817312416</v>
       </c>
       <c r="L22">
-        <v>19.19808156017615</v>
+        <v>19.19808156017616</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.7863436375317</v>
+        <v>23.78634363753181</v>
       </c>
       <c r="C23">
-        <v>21.63496631980681</v>
+        <v>21.63496631980684</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.686301702943944</v>
+        <v>7.686301702943952</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>44.29239086065029</v>
+        <v>44.29239086065064</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.58186595271166</v>
+        <v>22.58186595271176</v>
       </c>
       <c r="K23">
-        <v>12.74058047577796</v>
+        <v>12.74058047577799</v>
       </c>
       <c r="L23">
-        <v>18.79551686531036</v>
+        <v>18.79551686531044</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.75729954634819</v>
+        <v>21.75729954634826</v>
       </c>
       <c r="C24">
-        <v>19.76538069407683</v>
+        <v>19.76538069407674</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.320611478244335</v>
+        <v>7.320611478244328</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.34374475236734</v>
+        <v>41.34374475236724</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>20.67199314156429</v>
       </c>
       <c r="K24">
-        <v>11.71881369640338</v>
+        <v>11.71881369640337</v>
       </c>
       <c r="L24">
         <v>17.23693081823734</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.45923080955026</v>
+        <v>19.45923080955019</v>
       </c>
       <c r="C25">
-        <v>17.65564322233313</v>
+        <v>17.65564322233324</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.93663921163162</v>
+        <v>6.936639211631651</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>38.12497133177841</v>
+        <v>38.12497133177823</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.51021402151802</v>
+        <v>18.51021402151804</v>
       </c>
       <c r="K25">
-        <v>10.75225531448102</v>
+        <v>10.752255314481</v>
       </c>
       <c r="L25">
-        <v>15.47135577187385</v>
+        <v>15.47135577187383</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65955958319726</v>
+        <v>17.65955958319732</v>
       </c>
       <c r="C2">
-        <v>16.00898859053726</v>
+        <v>16.00898859053738</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.662106326707537</v>
+        <v>6.662106326707601</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>35.71369848122825</v>
+        <v>35.71369848122858</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>16.81795280570323</v>
+        <v>16.8179528057033</v>
       </c>
       <c r="K2">
         <v>10.02868308711981</v>
       </c>
       <c r="L2">
-        <v>14.08867629878048</v>
+        <v>14.08867629878056</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.36718407024809</v>
+        <v>16.36718407024814</v>
       </c>
       <c r="C3">
-        <v>14.82944126245343</v>
+        <v>14.82944126245332</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.48105605959741</v>
+        <v>6.481056059597368</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>34.05292013396631</v>
+        <v>34.05292013396625</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>15.60289785680591</v>
       </c>
       <c r="K3">
-        <v>9.531197040188733</v>
+        <v>9.531197040188735</v>
       </c>
       <c r="L3">
-        <v>13.09584665356457</v>
+        <v>13.09584665356462</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.53619775127623</v>
+        <v>15.53619775127606</v>
       </c>
       <c r="C4">
-        <v>14.0722999692213</v>
+        <v>14.07229996922122</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.372390856383355</v>
+        <v>6.372390856383288</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>33.02067547677996</v>
+        <v>33.02067547677989</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.82163602719363</v>
+        <v>14.82163602719349</v>
       </c>
       <c r="K4">
-        <v>9.222654900061652</v>
+        <v>9.222654900061608</v>
       </c>
       <c r="L4">
-        <v>12.45754144789699</v>
+        <v>12.4575414478969</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.18793187503728</v>
+        <v>15.1879318750373</v>
       </c>
       <c r="C5">
-        <v>13.75528587533891</v>
+        <v>13.75528587533899</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -538,25 +538,25 @@
         <v>6.328748204272499</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>32.59706815086741</v>
+        <v>32.59706815086744</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.4941980199919</v>
+        <v>14.49419801999195</v>
       </c>
       <c r="K5">
-        <v>9.096244792737036</v>
+        <v>9.096244792737011</v>
       </c>
       <c r="L5">
-        <v>12.25882932320083</v>
+        <v>12.25882932320081</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.12951500064103</v>
+        <v>15.12951500064093</v>
       </c>
       <c r="C6">
-        <v>13.70212868842948</v>
+        <v>13.70212868842939</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.321540353213859</v>
+        <v>6.321540353213924</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>32.52655680907245</v>
+        <v>32.5265568090723</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.43927361664289</v>
+        <v>14.43927361664282</v>
       </c>
       <c r="K6">
-        <v>9.075217084164249</v>
+        <v>9.075217084164263</v>
       </c>
       <c r="L6">
-        <v>12.22815315380763</v>
+        <v>12.22815315380767</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.53154018275893</v>
+        <v>15.5315401827589</v>
       </c>
       <c r="C7">
-        <v>14.06805916418564</v>
+        <v>14.06805916418579</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.371799671595054</v>
+        <v>6.37179967159498</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>33.0149742340667</v>
+        <v>33.01497423406659</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.81725706752078</v>
+        <v>14.81725706752081</v>
       </c>
       <c r="K7">
-        <v>9.220952676669953</v>
+        <v>9.220952676669935</v>
       </c>
       <c r="L7">
-        <v>12.45396403775993</v>
+        <v>12.45396403775998</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.22158992209554</v>
+        <v>17.2215899220956</v>
       </c>
       <c r="C8">
-        <v>15.60898010053984</v>
+        <v>15.60898010053997</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.599166389643394</v>
+        <v>6.599166389643381</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>35.14374825359305</v>
+        <v>35.143748253593</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.40617686531055</v>
+        <v>16.4061768653106</v>
       </c>
       <c r="K8">
-        <v>9.857839630881587</v>
+        <v>9.857839630881623</v>
       </c>
       <c r="L8">
-        <v>13.7522058645635</v>
+        <v>13.75220586456358</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.24923633475161</v>
+        <v>20.24923633475159</v>
       </c>
       <c r="C9">
-        <v>18.38000186208174</v>
+        <v>18.38000186208173</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.064676445055025</v>
+        <v>7.064676445055011</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39.21529051288168</v>
+        <v>39.21529051288183</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>19.25323541082711</v>
       </c>
       <c r="K9">
-        <v>11.07965161422111</v>
+        <v>11.07965161422113</v>
       </c>
       <c r="L9">
-        <v>16.07832452303692</v>
+        <v>16.07832452303688</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.31592231766193</v>
+        <v>22.31592231766182</v>
       </c>
       <c r="C10">
-        <v>20.279450453553</v>
+        <v>20.27945045355302</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.418982036210185</v>
+        <v>7.418982036210115</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42.14647315312239</v>
+        <v>42.14647315312226</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>21.19768378907508</v>
+        <v>21.19768378907503</v>
       </c>
       <c r="K10">
-        <v>11.95982544989465</v>
+        <v>11.95982544989461</v>
       </c>
       <c r="L10">
-        <v>17.66607132054117</v>
+        <v>17.66607132054115</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.22632150690012</v>
+        <v>23.2263215069001</v>
       </c>
       <c r="C11">
         <v>21.11829720763481</v>
@@ -763,28 +763,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.583114599569749</v>
+        <v>7.583114599569724</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43.46973124376733</v>
+        <v>43.46973124376735</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.05460842923996</v>
+        <v>22.05460842923993</v>
       </c>
       <c r="K11">
-        <v>12.44119769192811</v>
+        <v>12.44119769192817</v>
       </c>
       <c r="L11">
-        <v>18.3653880025389</v>
+        <v>18.36538800253891</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.56722687657668</v>
+        <v>23.56722687657666</v>
       </c>
       <c r="C12">
-        <v>21.43275136539058</v>
+        <v>21.43275136539057</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.645733571735135</v>
+        <v>7.645733571735086</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43.96975804160749</v>
+        <v>43.96975804160751</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.37555654987411</v>
+        <v>22.3755565498741</v>
       </c>
       <c r="K12">
         <v>12.62344587150153</v>
       </c>
       <c r="L12">
-        <v>18.6272276479135</v>
+        <v>18.62722764791353</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.49397006832853</v>
+        <v>23.49397006832847</v>
       </c>
       <c r="C13">
-        <v>21.36516274384051</v>
+        <v>21.36516274384064</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.632225923051865</v>
+        <v>7.63222592305185</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.30658514489423</v>
+        <v>22.30658514489425</v>
       </c>
       <c r="K13">
-        <v>12.58428355930621</v>
+        <v>12.58428355930619</v>
       </c>
       <c r="L13">
-        <v>18.57096245044266</v>
+        <v>18.57096245044264</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.25444228416938</v>
+        <v>23.25444228416921</v>
       </c>
       <c r="C14">
-        <v>21.14422895208623</v>
+        <v>21.1442289520864</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.588256677672435</v>
+        <v>7.588256677672443</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>43.51088723921042</v>
+        <v>43.51088723921051</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.08108154311633</v>
+        <v>22.08108154311628</v>
       </c>
       <c r="K14">
-        <v>12.45623142510193</v>
+        <v>12.45623142510197</v>
       </c>
       <c r="L14">
-        <v>18.38698731732266</v>
+        <v>18.38698731732265</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.10723817756976</v>
+        <v>23.10723817756971</v>
       </c>
       <c r="C15">
-        <v>21.00849791205931</v>
+        <v>21.00849791205943</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.561386360404781</v>
+        <v>7.561386360404697</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43.29563053721879</v>
+        <v>43.29563053721903</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>21.94250526185861</v>
       </c>
       <c r="K15">
-        <v>12.37753354529879</v>
+        <v>12.37753354529891</v>
       </c>
       <c r="L15">
-        <v>18.27392012254818</v>
+        <v>18.27392012254822</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.25586264962864</v>
+        <v>22.25586264962866</v>
       </c>
       <c r="C16">
         <v>20.22415737721186</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.4083181568375</v>
+        <v>7.408318156837505</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42.05982155387246</v>
+        <v>42.05982155387242</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.14116056354506</v>
+        <v>21.14116056354507</v>
       </c>
       <c r="K16">
-        <v>11.93381105449863</v>
+        <v>11.93381105449861</v>
       </c>
       <c r="L16">
-        <v>17.6199340220456</v>
+        <v>17.61993402204561</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.72624132966544</v>
+        <v>21.72624132966542</v>
       </c>
       <c r="C17">
-        <v>19.73681382800758</v>
+        <v>19.73681382800744</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.315196682246161</v>
+        <v>7.315196682246143</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>41.29933082050874</v>
+        <v>41.29933082050838</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.64276840226949</v>
+        <v>20.64276840226946</v>
       </c>
       <c r="K17">
         <v>11.7054777622756</v>
       </c>
       <c r="L17">
-        <v>17.21307083309718</v>
+        <v>17.21307083309721</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.4187876931868</v>
+        <v>21.41878769318674</v>
       </c>
       <c r="C18">
-        <v>19.45410347074617</v>
+        <v>19.45410347074618</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.261910685443001</v>
+        <v>7.261910685443003</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40.86092910783842</v>
+        <v>40.86092910783833</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.35347863868695</v>
+        <v>20.35347863868693</v>
       </c>
       <c r="K18">
-        <v>11.57383641912376</v>
+        <v>11.57383641912377</v>
       </c>
       <c r="L18">
-        <v>16.97687094656892</v>
+        <v>16.97687094656889</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,7 +1058,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.31419103099148</v>
+        <v>21.31419103099144</v>
       </c>
       <c r="C19">
         <v>19.35795787466941</v>
@@ -1067,28 +1067,28 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.243915236928154</v>
+        <v>7.243915236928139</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>40.71231441346186</v>
+        <v>40.71231441346188</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.25506697658737</v>
+        <v>20.25506697658732</v>
       </c>
       <c r="K19">
-        <v>11.52920933250368</v>
+        <v>11.52920933250367</v>
       </c>
       <c r="L19">
-        <v>16.89651368952384</v>
+        <v>16.89651368952381</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.78291032477457</v>
+        <v>21.78291032477467</v>
       </c>
       <c r="C20">
-        <v>19.78893821972198</v>
+        <v>19.788938219722</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.325080920882969</v>
+        <v>7.325080920882991</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>41.38038614330104</v>
+        <v>41.38038614330132</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.69609221976795</v>
+        <v>20.69609221976802</v>
       </c>
       <c r="K20">
-        <v>11.72981573686582</v>
+        <v>11.72981573686585</v>
       </c>
       <c r="L20">
-        <v>17.25660584350253</v>
+        <v>17.2566058435026</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.32489789636054</v>
+        <v>23.32489789636057</v>
       </c>
       <c r="C21">
-        <v>21.2092056232832</v>
+        <v>21.20920562328318</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.601158469347761</v>
+        <v>7.601158469347803</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
@@ -1152,16 +1152,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>43.61407412392189</v>
+        <v>43.61407412392163</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.14741010486673</v>
+        <v>22.14741010486676</v>
       </c>
       <c r="K21">
-        <v>12.49389764440051</v>
+        <v>12.49389764440049</v>
       </c>
       <c r="L21">
         <v>18.441103210555</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.31052971160706</v>
+        <v>24.31052971160696</v>
       </c>
       <c r="C22">
-        <v>22.11903853134868</v>
+        <v>22.11903853134866</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.784336402768906</v>
+        <v>7.784336402768923</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45.06802036829762</v>
+        <v>45.06802036829753</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.07547962496359</v>
+        <v>23.07547962496356</v>
       </c>
       <c r="K22">
-        <v>13.02077817312416</v>
+        <v>13.02077817312418</v>
       </c>
       <c r="L22">
-        <v>19.19808156017616</v>
+        <v>19.19808156017615</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.78634363753181</v>
+        <v>23.7863436375317</v>
       </c>
       <c r="C23">
-        <v>21.63496631980684</v>
+        <v>21.63496631980681</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.686301702943952</v>
+        <v>7.686301702943944</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>44.29239086065064</v>
+        <v>44.29239086065029</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.58186595271176</v>
+        <v>22.58186595271166</v>
       </c>
       <c r="K23">
-        <v>12.74058047577799</v>
+        <v>12.74058047577796</v>
       </c>
       <c r="L23">
-        <v>18.79551686531044</v>
+        <v>18.79551686531036</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.75729954634826</v>
+        <v>21.75729954634819</v>
       </c>
       <c r="C24">
-        <v>19.76538069407674</v>
+        <v>19.76538069407683</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.320611478244328</v>
+        <v>7.320611478244335</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>41.34374475236724</v>
+        <v>41.34374475236734</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>20.67199314156429</v>
       </c>
       <c r="K24">
-        <v>11.71881369640337</v>
+        <v>11.71881369640338</v>
       </c>
       <c r="L24">
         <v>17.23693081823734</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.45923080955019</v>
+        <v>19.45923080955026</v>
       </c>
       <c r="C25">
-        <v>17.65564322233324</v>
+        <v>17.65564322233313</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.936639211631651</v>
+        <v>6.93663921163162</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>38.12497133177823</v>
+        <v>38.12497133177841</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>18.51021402151804</v>
+        <v>18.51021402151802</v>
       </c>
       <c r="K25">
-        <v>10.752255314481</v>
+        <v>10.75225531448102</v>
       </c>
       <c r="L25">
-        <v>15.47135577187383</v>
+        <v>15.47135577187385</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.65955958319732</v>
+        <v>17.53928579111211</v>
       </c>
       <c r="C2">
-        <v>16.00898859053738</v>
+        <v>15.89059636266289</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.662106326707601</v>
+        <v>6.563954939078717</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.091063514530204</v>
       </c>
       <c r="H2">
-        <v>35.71369848122858</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>35.89625682662928</v>
       </c>
       <c r="J2">
-        <v>16.8179528057033</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>10.02868308711981</v>
+        <v>16.67619602432055</v>
       </c>
       <c r="L2">
-        <v>14.08867629878056</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>10.02367582958389</v>
+      </c>
+      <c r="M2">
+        <v>14.00569612800058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.36718407024814</v>
+        <v>16.2542688682191</v>
       </c>
       <c r="C3">
-        <v>14.82944126245332</v>
+        <v>14.72081046944113</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.481056059597368</v>
+        <v>6.377803494884839</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.103474850736851</v>
       </c>
       <c r="H3">
-        <v>34.05292013396625</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>34.26307437656269</v>
       </c>
       <c r="J3">
-        <v>15.60289785680591</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9.531197040188735</v>
+        <v>15.46644623391573</v>
       </c>
       <c r="L3">
-        <v>13.09584665356462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.529624708564686</v>
+      </c>
+      <c r="M3">
+        <v>13.0155165611416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.53619775127606</v>
+        <v>15.42812965258184</v>
       </c>
       <c r="C4">
-        <v>14.07229996922122</v>
+        <v>13.97018675730037</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.372390856383288</v>
+        <v>6.265799738154855</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.111223115382316</v>
       </c>
       <c r="H4">
-        <v>33.02067547677989</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>33.24896412821209</v>
       </c>
       <c r="J4">
-        <v>14.82163602719349</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.222654900061608</v>
+        <v>14.68852762066214</v>
       </c>
       <c r="L4">
-        <v>12.4575414478969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.223297427949884</v>
+      </c>
+      <c r="M4">
+        <v>12.48592552126144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.1879318750373</v>
+        <v>15.08193097775704</v>
       </c>
       <c r="C5">
-        <v>13.75528587533899</v>
+        <v>13.6559740983654</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.328748204272499</v>
+        <v>6.220748917767629</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.114416691551546</v>
       </c>
       <c r="H5">
-        <v>32.59706815086744</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>32.83304452046105</v>
       </c>
       <c r="J5">
-        <v>14.49419801999195</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9.096244792737011</v>
+        <v>14.36247670928553</v>
       </c>
       <c r="L5">
-        <v>12.25882932320081</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>9.097817146709254</v>
+      </c>
+      <c r="M5">
+        <v>12.30467835008995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.12951500064093</v>
+        <v>15.02386320835493</v>
       </c>
       <c r="C6">
-        <v>13.70212868842939</v>
+        <v>13.60329131485367</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.321540353213924</v>
+        <v>6.213304492285157</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.114949272368156</v>
       </c>
       <c r="H6">
-        <v>32.5265568090723</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>32.76382758413134</v>
       </c>
       <c r="J6">
-        <v>14.43927361664282</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>9.075217084164263</v>
+        <v>14.30778420980938</v>
       </c>
       <c r="L6">
-        <v>12.22815315380767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>9.076945489481398</v>
+      </c>
+      <c r="M6">
+        <v>12.27451776681524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.5315401827589</v>
+        <v>15.42349957763148</v>
       </c>
       <c r="C7">
-        <v>14.06805916418579</v>
+        <v>13.96598312479207</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.37179967159498</v>
+        <v>6.265189749521075</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.111266033903105</v>
       </c>
       <c r="H7">
-        <v>33.01497423406659</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>33.2433653638353</v>
       </c>
       <c r="J7">
-        <v>14.81725706752081</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>9.220952676669935</v>
+        <v>14.6841672639083</v>
       </c>
       <c r="L7">
-        <v>12.45396403775998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.221607633710182</v>
+      </c>
+      <c r="M7">
+        <v>12.48348561768004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.2215899220956</v>
+        <v>17.10379037592378</v>
       </c>
       <c r="C8">
-        <v>15.60898010053997</v>
+        <v>15.49385251820156</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.599166389643381</v>
+        <v>6.499301374823798</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.095318976343266</v>
       </c>
       <c r="H8">
-        <v>35.143748253593</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>35.33557484277443</v>
       </c>
       <c r="J8">
-        <v>16.4061768653106</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>9.857839630881623</v>
+        <v>16.26623348051389</v>
       </c>
       <c r="L8">
-        <v>13.75220586456358</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.853995333300595</v>
+      </c>
+      <c r="M8">
+        <v>13.67015026618709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.24923633475159</v>
+        <v>20.11453662224901</v>
       </c>
       <c r="C9">
-        <v>18.38000186208173</v>
+        <v>18.24290929364951</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.064676445055011</v>
+        <v>6.976233544106957</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.06485669382318</v>
       </c>
       <c r="H9">
-        <v>39.21529051288183</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>39.34473459518399</v>
       </c>
       <c r="J9">
-        <v>19.25323541082711</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>11.07965161422113</v>
+        <v>19.10037056617995</v>
       </c>
       <c r="L9">
-        <v>16.07832452303688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>11.06776645709733</v>
+      </c>
+      <c r="M9">
+        <v>15.98933163641038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.31592231766182</v>
+        <v>22.16967824929835</v>
       </c>
       <c r="C10">
-        <v>20.27945045355302</v>
+        <v>20.12777059105582</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.418982036210115</v>
+        <v>7.337632298287028</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.042645197143022</v>
       </c>
       <c r="H10">
-        <v>42.14647315312226</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>42.23534259065588</v>
       </c>
       <c r="J10">
-        <v>21.19768378907503</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>11.95982544989461</v>
+        <v>21.03536984199714</v>
       </c>
       <c r="L10">
-        <v>17.66607132054115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.94238978021403</v>
+      </c>
+      <c r="M10">
+        <v>17.57159178943598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.2263215069001</v>
+        <v>23.07490349910508</v>
       </c>
       <c r="C11">
-        <v>21.11829720763481</v>
+        <v>20.96017834494869</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.583114599569724</v>
+        <v>7.504673989456799</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.032490678472615</v>
       </c>
       <c r="H11">
-        <v>43.46973124376735</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>43.54112331967733</v>
       </c>
       <c r="J11">
-        <v>22.05460842923993</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>12.44119769192817</v>
+        <v>21.88792728367836</v>
       </c>
       <c r="L11">
-        <v>18.36538800253891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.40434903597982</v>
+      </c>
+      <c r="M11">
+        <v>18.26828263054058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.56722687657666</v>
+        <v>23.41385024330721</v>
       </c>
       <c r="C12">
-        <v>21.43275136539057</v>
+        <v>21.27220997943637</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.645733571735086</v>
+        <v>7.568346222512836</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.028629540700791</v>
       </c>
       <c r="H12">
-        <v>43.96975804160751</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>44.03465476287673</v>
       </c>
       <c r="J12">
-        <v>22.3755565498741</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>12.62344587150153</v>
+        <v>22.20720337971231</v>
       </c>
       <c r="L12">
-        <v>18.62722764791353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.58587903870179</v>
+      </c>
+      <c r="M12">
+        <v>18.52910385792622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.49397006832847</v>
+        <v>23.34101541740811</v>
       </c>
       <c r="C13">
-        <v>21.36516274384064</v>
+        <v>21.20514260523959</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.63222592305185</v>
+        <v>7.554613928381972</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.029461962660076</v>
       </c>
       <c r="H13">
-        <v>43.86210766242427</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>43.9283981377385</v>
       </c>
       <c r="J13">
-        <v>22.30658514489425</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>12.58428355930619</v>
+        <v>22.13859304174278</v>
       </c>
       <c r="L13">
-        <v>18.57096245044264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.54687200043603</v>
+      </c>
+      <c r="M13">
+        <v>18.4730591681506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.25444228416921</v>
+        <v>23.10286319254119</v>
       </c>
       <c r="C14">
-        <v>21.1442289520864</v>
+        <v>20.98591054762849</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.588256677672443</v>
+        <v>7.509903704398973</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.032173392168189</v>
       </c>
       <c r="H14">
-        <v>43.51088723921051</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>43.58174259227429</v>
       </c>
       <c r="J14">
-        <v>22.08108154311628</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>12.45623142510197</v>
+        <v>21.91426325998044</v>
       </c>
       <c r="L14">
-        <v>18.38698731732265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.41932394826133</v>
+      </c>
+      <c r="M14">
+        <v>18.28979867827887</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.10723817756971</v>
+        <v>22.95650139815385</v>
       </c>
       <c r="C15">
-        <v>21.00849791205943</v>
+        <v>20.85122352810782</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.561386360404697</v>
+        <v>7.482573139490173</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.033831878651419</v>
       </c>
       <c r="H15">
-        <v>43.29563053721903</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>43.36929741607166</v>
       </c>
       <c r="J15">
-        <v>21.94250526185861</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>12.37753354529891</v>
+        <v>21.77640331779192</v>
       </c>
       <c r="L15">
-        <v>18.27392012254822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.34093315504652</v>
+      </c>
+      <c r="M15">
+        <v>18.17716590228707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.25586264962866</v>
+        <v>22.10995740712292</v>
       </c>
       <c r="C16">
-        <v>20.22415737721186</v>
+        <v>20.07290124051829</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.408318156837505</v>
+        <v>7.326771677379791</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.043307101333893</v>
       </c>
       <c r="H16">
-        <v>42.05982155387242</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>42.14985145418355</v>
       </c>
       <c r="J16">
-        <v>21.14116056354507</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>11.93381105449861</v>
+        <v>20.97912996596137</v>
       </c>
       <c r="L16">
-        <v>17.61993402204561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.91653830107657</v>
+      </c>
+      <c r="M16">
+        <v>17.52562305516841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.72624132966542</v>
+        <v>21.58331292994767</v>
       </c>
       <c r="C17">
-        <v>19.73681382800744</v>
+        <v>19.58929160651761</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.315196682246143</v>
+        <v>7.231890142871658</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.049101244306642</v>
       </c>
       <c r="H17">
-        <v>41.29933082050838</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>41.39963839159717</v>
       </c>
       <c r="J17">
-        <v>20.64276840226946</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>11.7054777622756</v>
+        <v>20.48321244225735</v>
       </c>
       <c r="L17">
-        <v>17.21307083309721</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.68963666163726</v>
+      </c>
+      <c r="M17">
+        <v>17.12022207482952</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.41878769318674</v>
+        <v>21.27757950458572</v>
       </c>
       <c r="C18">
-        <v>19.45410347074618</v>
+        <v>19.3087482328006</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.261910685443003</v>
+        <v>7.177562063136357</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.052429727214924</v>
       </c>
       <c r="H18">
-        <v>40.86092910783833</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>40.96724169403202</v>
       </c>
       <c r="J18">
-        <v>20.35347863868693</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>11.57383641912377</v>
+        <v>20.19534015048519</v>
       </c>
       <c r="L18">
-        <v>16.97687094656889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.55882272437971</v>
+      </c>
+      <c r="M18">
+        <v>16.88485138466021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.31419103099144</v>
+        <v>21.17356694891007</v>
       </c>
       <c r="C19">
-        <v>19.35795787466941</v>
+        <v>19.2133400206859</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.243915236928139</v>
+        <v>7.159208758705319</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.05355622055047</v>
       </c>
       <c r="H19">
-        <v>40.71231441346188</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>40.82067675013955</v>
       </c>
       <c r="J19">
-        <v>20.25506697658732</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>11.52920933250367</v>
+        <v>20.09740763671955</v>
       </c>
       <c r="L19">
-        <v>16.89651368952381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.51447657654425</v>
+      </c>
+      <c r="M19">
+        <v>16.80477298787041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.78291032477467</v>
+        <v>21.63966427748458</v>
       </c>
       <c r="C20">
-        <v>19.788938219722</v>
+        <v>19.6410166018141</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.325080920882991</v>
+        <v>7.241964840993512</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.048484935780071</v>
       </c>
       <c r="H20">
-        <v>41.38038614330132</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>41.47959007239828</v>
       </c>
       <c r="J20">
-        <v>20.69609221976802</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>11.72981573686585</v>
+        <v>20.53627349307867</v>
       </c>
       <c r="L20">
-        <v>17.2566058435026</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.71382185241907</v>
+      </c>
+      <c r="M20">
+        <v>17.16360268892445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.32489789636057</v>
+        <v>23.17291484450064</v>
       </c>
       <c r="C21">
-        <v>21.20920562328318</v>
+        <v>21.05038705705108</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.601158469347803</v>
+        <v>7.523024473109251</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.031377485147124</v>
       </c>
       <c r="H21">
-        <v>43.61407412392163</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>43.68358548911662</v>
       </c>
       <c r="J21">
-        <v>22.14741010486676</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>12.49389764440049</v>
+        <v>21.9802476143689</v>
       </c>
       <c r="L21">
-        <v>18.441103210555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.4568424648937</v>
+      </c>
+      <c r="M21">
+        <v>18.34370536740563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.31052971160696</v>
+        <v>24.15283400874496</v>
       </c>
       <c r="C22">
-        <v>22.11903853134866</v>
+        <v>21.95318314336884</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.784336402768923</v>
+        <v>7.709175360324794</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2.020099357260407</v>
       </c>
       <c r="H22">
-        <v>45.06802036829753</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>45.11883107121552</v>
       </c>
       <c r="J22">
-        <v>23.07547962496356</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>13.02077817312418</v>
+        <v>22.90340571349477</v>
       </c>
       <c r="L22">
-        <v>19.19808156017615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.98160535875141</v>
+      </c>
+      <c r="M22">
+        <v>19.0976675332394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.7863436375317</v>
+        <v>23.63170105388384</v>
       </c>
       <c r="C23">
-        <v>21.63496631980681</v>
+        <v>21.47286340793266</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.686301702943944</v>
+        <v>7.609580723862693</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.026130849060828</v>
       </c>
       <c r="H23">
-        <v>44.29239086065029</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>44.35312500094299</v>
       </c>
       <c r="J23">
-        <v>22.58186595271166</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>12.74058047577796</v>
+        <v>22.41242689733855</v>
       </c>
       <c r="L23">
-        <v>18.79551686531036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.70254605175074</v>
+      </c>
+      <c r="M23">
+        <v>18.6967280170749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.75729954634819</v>
+        <v>21.61419707939882</v>
       </c>
       <c r="C24">
-        <v>19.76538069407683</v>
+        <v>19.61763957912818</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.320611478244335</v>
+        <v>7.237409385488903</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.048763576482381</v>
       </c>
       <c r="H24">
-        <v>41.34374475236734</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>41.44344733692428</v>
       </c>
       <c r="J24">
-        <v>20.67199314156429</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>11.71881369640338</v>
+        <v>20.51229322738335</v>
       </c>
       <c r="L24">
-        <v>17.23693081823734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.70288887172785</v>
+      </c>
+      <c r="M24">
+        <v>17.14399750150618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.45923080955026</v>
+        <v>19.32891425548875</v>
       </c>
       <c r="C25">
-        <v>17.65564322233313</v>
+        <v>17.52417437675302</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.93663921163162</v>
+        <v>6.845321387884592</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.073041727276659</v>
       </c>
       <c r="H25">
-        <v>38.12497133177841</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>38.27032502013979</v>
       </c>
       <c r="J25">
-        <v>18.51021402151802</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>10.75225531448102</v>
+        <v>18.36081440978804</v>
       </c>
       <c r="L25">
-        <v>15.47135577187385</v>
+        <v>10.74247189226143</v>
+      </c>
+      <c r="M25">
+        <v>15.38429630304877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.53928579111211</v>
+        <v>19.67792316290643</v>
       </c>
       <c r="C2">
-        <v>15.89059636266289</v>
+        <v>13.13322587126432</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.563954939078717</v>
+        <v>11.56180858225795</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.091063514530204</v>
+        <v>2.068799497044806</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.89625682662928</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.67619602432055</v>
+        <v>17.16112036441155</v>
       </c>
       <c r="L2">
-        <v>10.02367582958389</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>14.00569612800058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>17.48617119229394</v>
+      </c>
+      <c r="N2">
+        <v>12.30961808635474</v>
+      </c>
+      <c r="O2">
+        <v>22.52562738601685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.2542688682191</v>
+        <v>18.27309660565908</v>
       </c>
       <c r="C3">
-        <v>14.72081046944113</v>
+        <v>12.21561811179283</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.377803494884839</v>
+        <v>10.87188608239146</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.103474850736851</v>
+        <v>2.078418665049275</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.26307437656269</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.46644623391573</v>
+        <v>15.96179904477829</v>
       </c>
       <c r="L3">
-        <v>9.529624708564686</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>13.0155165611416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16.26376229770435</v>
+      </c>
+      <c r="N3">
+        <v>12.57057522702531</v>
+      </c>
+      <c r="O3">
+        <v>21.76407079470918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.42812965258184</v>
+        <v>17.36625592215649</v>
       </c>
       <c r="C4">
-        <v>13.97018675730037</v>
+        <v>11.62395673392428</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.265799738154855</v>
+        <v>10.43879223375765</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.111223115382316</v>
+        <v>2.08445226737518</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>33.24896412821209</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.68852762066214</v>
+        <v>15.18773299912498</v>
       </c>
       <c r="L4">
-        <v>9.223297427949884</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.48592552126144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.47603697613189</v>
+      </c>
+      <c r="N4">
+        <v>12.73437606005294</v>
+      </c>
+      <c r="O4">
+        <v>21.31288424339475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.08193097775704</v>
+        <v>16.98541825358646</v>
       </c>
       <c r="C5">
-        <v>13.6559740983654</v>
+        <v>11.3756326059479</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.220748917767629</v>
+        <v>10.2600385916046</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.114416691551546</v>
+        <v>2.086945355586504</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.83304452046105</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.36247670928553</v>
+        <v>14.86267774312891</v>
       </c>
       <c r="L5">
-        <v>9.097817146709254</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.30467835008995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.14553582461352</v>
+      </c>
+      <c r="N5">
+        <v>12.8020387366371</v>
+      </c>
+      <c r="O5">
+        <v>21.13318358050437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.02386320835493</v>
+        <v>16.92149392278892</v>
       </c>
       <c r="C6">
-        <v>13.60329131485367</v>
+        <v>11.33395948623491</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.213304492285157</v>
+        <v>10.23022429298775</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.114949272368156</v>
+        <v>2.087361469669081</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.76382758413134</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.30778420980938</v>
+        <v>14.80811772566284</v>
       </c>
       <c r="L6">
-        <v>9.076945489481398</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.27451776681524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.09007856369895</v>
+      </c>
+      <c r="N6">
+        <v>12.81332963904635</v>
+      </c>
+      <c r="O6">
+        <v>21.10359684159261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.42349957763148</v>
+        <v>17.36116574014696</v>
       </c>
       <c r="C7">
-        <v>13.96598312479207</v>
+        <v>11.62063711571326</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.265189749521075</v>
+        <v>10.43639047729908</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.111266033903105</v>
+        <v>2.084485748039036</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>33.2433653638353</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.6841672639083</v>
+        <v>15.18338831148625</v>
       </c>
       <c r="L7">
-        <v>9.221607633710182</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.48348561768004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.47161836650398</v>
+      </c>
+      <c r="N7">
+        <v>12.73528486755417</v>
+      </c>
+      <c r="O7">
+        <v>21.31044383892938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.10379037592378</v>
+        <v>19.20262733628085</v>
       </c>
       <c r="C8">
-        <v>15.49385251820156</v>
+        <v>12.82262546546279</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.499301374823798</v>
+        <v>11.32594799601771</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.095318976343266</v>
+        <v>2.072091195656726</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.33557484277443</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.26623348051389</v>
+        <v>16.75532547003407</v>
       </c>
       <c r="L8">
-        <v>9.853995333300595</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.67015026618709</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17.07230191471885</v>
+      </c>
+      <c r="N8">
+        <v>12.39886267997238</v>
+      </c>
+      <c r="O8">
+        <v>22.25965459621448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.11453662224901</v>
+        <v>22.47033194653073</v>
       </c>
       <c r="C9">
-        <v>18.24290929364951</v>
+        <v>14.96127199394683</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.976233544106957</v>
+        <v>13.08577211908101</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.06485669382318</v>
+        <v>2.048681368408359</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>39.34473459518399</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.10037056617995</v>
+        <v>19.54591308400007</v>
       </c>
       <c r="L9">
-        <v>11.06776645709733</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>15.98933163641038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19.92393313566123</v>
+      </c>
+      <c r="N9">
+        <v>11.76697018884667</v>
+      </c>
+      <c r="O9">
+        <v>24.25051983099042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.16967824929835</v>
+        <v>24.67380800512799</v>
       </c>
       <c r="C10">
-        <v>20.12777059105582</v>
+        <v>16.4081081374818</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.337632298287028</v>
+        <v>14.43016709252017</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>2.042645197143022</v>
+        <v>2.031849616352549</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.23534259065588</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.03536984199714</v>
+        <v>21.42880125430316</v>
       </c>
       <c r="L10">
-        <v>11.94238978021403</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.57159178943598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>21.85552802739846</v>
+      </c>
+      <c r="N10">
+        <v>11.31928756056103</v>
+      </c>
+      <c r="O10">
+        <v>25.79316868136726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.07490349910508</v>
+        <v>25.63638578827511</v>
       </c>
       <c r="C11">
-        <v>20.96017834494869</v>
+        <v>17.04149957136836</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.504673989456799</v>
+        <v>15.02196886181351</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>2.032490678472615</v>
+        <v>2.024226479891273</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>43.54112331967733</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.88792728367836</v>
+        <v>22.25168744540981</v>
       </c>
       <c r="L11">
-        <v>12.40434903597982</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>18.26828263054058</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>22.70169723292111</v>
+      </c>
+      <c r="N11">
+        <v>11.11927738704497</v>
+      </c>
+      <c r="O11">
+        <v>26.51333466840532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.41385024330721</v>
+        <v>25.99544689864391</v>
       </c>
       <c r="C12">
-        <v>21.27220997943637</v>
+        <v>17.27799293742407</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.568346222512836</v>
+        <v>15.24344939905339</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>2.028629540700791</v>
+        <v>2.02134027109213</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.03465476287673</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.20720337971231</v>
+        <v>22.55870206483673</v>
       </c>
       <c r="L12">
-        <v>12.58587903870179</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>18.52910385792622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>23.01771959533618</v>
+      </c>
+      <c r="N12">
+        <v>11.04408234923266</v>
+      </c>
+      <c r="O12">
+        <v>26.78884070441694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.34101541740811</v>
+        <v>25.91835414425845</v>
       </c>
       <c r="C13">
-        <v>21.20514260523959</v>
+        <v>17.22720567731924</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.554613928381972</v>
+        <v>15.19586238370621</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
       <c r="G13">
-        <v>2.029461962660076</v>
+        <v>2.021961920452299</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>43.9283981377385</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.13859304174278</v>
+        <v>22.49278112270001</v>
       </c>
       <c r="L13">
-        <v>12.54687200043603</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>18.4730591681506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>22.94984966676085</v>
+      </c>
+      <c r="N13">
+        <v>11.06025224541955</v>
+      </c>
+      <c r="O13">
+        <v>26.72937819698101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.10286319254119</v>
+        <v>25.66603341631967</v>
       </c>
       <c r="C14">
-        <v>20.98591054762849</v>
+        <v>17.06102206101836</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.509903704398973</v>
+        <v>15.04024137758628</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.032173392168189</v>
+        <v>2.023989046470456</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>43.58174259227429</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.91426325998044</v>
+        <v>22.27703630437614</v>
       </c>
       <c r="L14">
-        <v>12.41932394826133</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>18.28979867827887</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22.72778315343716</v>
+      </c>
+      <c r="N14">
+        <v>11.11307996419131</v>
+      </c>
+      <c r="O14">
+        <v>26.53594362515552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.95650139815385</v>
+        <v>25.5107791661725</v>
       </c>
       <c r="C15">
-        <v>20.85122352810782</v>
+        <v>16.95879897807152</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.482573139490173</v>
+        <v>14.94458461307265</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>2.033831878651419</v>
+        <v>2.025230647334871</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>43.36929741607166</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.77640331779192</v>
+        <v>22.14429575868555</v>
       </c>
       <c r="L15">
-        <v>12.34093315504652</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>18.17716590228707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>22.59119620088999</v>
+      </c>
+      <c r="N15">
+        <v>11.14551023050615</v>
+      </c>
+      <c r="O15">
+        <v>26.41782882200608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.10995740712292</v>
+        <v>24.6101234212646</v>
       </c>
       <c r="C16">
-        <v>20.07290124051829</v>
+        <v>16.36623284664184</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.326771677379791</v>
+        <v>14.39111187660252</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.043307101333893</v>
+        <v>2.032348126157623</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.14985145418355</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.97912996596137</v>
+        <v>21.37436684768222</v>
       </c>
       <c r="L16">
-        <v>11.91653830107657</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>17.52562305516841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21.79959705622193</v>
+      </c>
+      <c r="N16">
+        <v>11.33243345034251</v>
+      </c>
+      <c r="O16">
+        <v>25.74648574426838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.58331292994767</v>
+        <v>24.04759490255854</v>
       </c>
       <c r="C17">
-        <v>19.58929160651761</v>
+        <v>15.99650411704348</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.231890142871658</v>
+        <v>14.04665915498541</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>2.049101244306642</v>
+        <v>2.036720185785121</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>41.39963839159717</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.48321244225735</v>
+        <v>20.89358728954354</v>
       </c>
       <c r="L17">
-        <v>11.68963666163726</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>17.12022207482952</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>21.3058311333778</v>
+      </c>
+      <c r="N17">
+        <v>11.44804829972621</v>
+      </c>
+      <c r="O17">
+        <v>25.33943872175385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.27757950458572</v>
+        <v>23.72027948123554</v>
       </c>
       <c r="C18">
-        <v>19.3087482328006</v>
+        <v>15.7814997305456</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.177562063136357</v>
+        <v>13.84666339159022</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.052429727214924</v>
+        <v>2.039238342262578</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>40.96724169403202</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.19534015048519</v>
+        <v>20.61387225811725</v>
       </c>
       <c r="L18">
-        <v>11.55882272437971</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16.88485138466021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>21.0187506773581</v>
+      </c>
+      <c r="N18">
+        <v>11.51488784467049</v>
+      </c>
+      <c r="O18">
+        <v>25.10703625273548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.17356694891007</v>
+        <v>23.60880173316685</v>
       </c>
       <c r="C19">
-        <v>19.2133400206859</v>
+        <v>15.70829411296704</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.159208758705319</v>
+        <v>13.77861983449229</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150062</v>
       </c>
       <c r="G19">
-        <v>2.05355622055047</v>
+        <v>2.040091665002767</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>40.82067675013955</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.09740763671955</v>
+        <v>20.51861181427964</v>
       </c>
       <c r="L19">
-        <v>11.51447657654425</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.80477298787041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20.92101347826654</v>
+      </c>
+      <c r="N19">
+        <v>11.53757671398516</v>
+      </c>
+      <c r="O19">
+        <v>25.02864072968452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.63966427748458</v>
+        <v>24.10786467036746</v>
       </c>
       <c r="C20">
-        <v>19.6410166018141</v>
+        <v>16.03610378448457</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.241964840993512</v>
+        <v>14.08351934863536</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>2.048484935780071</v>
+        <v>2.036254443806408</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>41.47959007239828</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.53627349307867</v>
+        <v>20.94509487723058</v>
       </c>
       <c r="L20">
-        <v>11.71382185241907</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>17.16360268892445</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>21.35871018389053</v>
+      </c>
+      <c r="N20">
+        <v>11.43570550999212</v>
+      </c>
+      <c r="O20">
+        <v>25.38259066710705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.17291484450064</v>
+        <v>25.74029157921903</v>
       </c>
       <c r="C21">
-        <v>21.05038705705108</v>
+        <v>17.10992359733618</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.523024473109251</v>
+        <v>15.08602029310462</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329769</v>
       </c>
       <c r="G21">
-        <v>2.031377485147124</v>
+        <v>2.02339365406029</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>43.68358548911662</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.9802476143689</v>
+        <v>22.34052839440253</v>
       </c>
       <c r="L21">
-        <v>12.4568424648937</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>18.34370536740563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22.79312664020175</v>
+      </c>
+      <c r="N21">
+        <v>11.09754816938584</v>
+      </c>
+      <c r="O21">
+        <v>26.59268269618933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.15283400874496</v>
+        <v>26.77558446345438</v>
       </c>
       <c r="C22">
-        <v>21.95318314336884</v>
+        <v>17.79226684888181</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.709175360324794</v>
+        <v>15.72605421751138</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>2.020099357260407</v>
+        <v>2.014988900473011</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.11883107121552</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.90340571349477</v>
+        <v>23.22587914884485</v>
       </c>
       <c r="L22">
-        <v>12.98160535875141</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>19.0976675332394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>23.70508521509074</v>
+      </c>
+      <c r="N22">
+        <v>10.87973728078297</v>
+      </c>
+      <c r="O22">
+        <v>27.39995549613828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.63170105388384</v>
+        <v>26.22582003183932</v>
       </c>
       <c r="C23">
-        <v>21.47286340793266</v>
+        <v>17.42979339392782</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.609580723862693</v>
+        <v>15.38576224711425</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.026130849060828</v>
+        <v>2.019476215615725</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.35312500094299</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.41242689733855</v>
+        <v>22.75570055686536</v>
       </c>
       <c r="L23">
-        <v>12.70254605175074</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.6967280170749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>23.22059122201236</v>
+      </c>
+      <c r="N23">
+        <v>10.99568394754428</v>
+      </c>
+      <c r="O23">
+        <v>26.96753117697488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.61419707939882</v>
+        <v>24.0806289084526</v>
       </c>
       <c r="C24">
-        <v>19.61763957912818</v>
+        <v>16.01820839758953</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.237409385488903</v>
+        <v>14.06686099287753</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575435</v>
       </c>
       <c r="G24">
-        <v>2.048763576482381</v>
+        <v>2.036464991103041</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>41.44344733692428</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.51229322738335</v>
+        <v>20.92181862002455</v>
       </c>
       <c r="L24">
-        <v>11.70288887172785</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>17.14399750150618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21.3348135770882</v>
+      </c>
+      <c r="N24">
+        <v>11.44128453092908</v>
+      </c>
+      <c r="O24">
+        <v>25.36307665476024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.32891425548875</v>
+        <v>21.62191865324463</v>
       </c>
       <c r="C25">
-        <v>17.52417437675302</v>
+        <v>14.40524785461344</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.845321387884592</v>
+        <v>12.57183300671078</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>33.19272459126709</v>
       </c>
       <c r="G25">
-        <v>2.073041727276659</v>
+        <v>2.054935720260192</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38.27032502013979</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.36081440978804</v>
+        <v>18.8212034036186</v>
       </c>
       <c r="L25">
-        <v>10.74247189226143</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>15.38429630304877</v>
+        <v>19.18211691102959</v>
+      </c>
+      <c r="N25">
+        <v>11.93499556469079</v>
+      </c>
+      <c r="O25">
+        <v>23.69808548652232</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.67792316290643</v>
+        <v>20.34637956774901</v>
       </c>
       <c r="C2">
-        <v>13.13322587126432</v>
+        <v>14.94859238301626</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.56180858225795</v>
+        <v>23.39435707911079</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>35.77516886302018</v>
       </c>
       <c r="G2">
-        <v>2.068799497044806</v>
+        <v>2.055789265472306</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>10.01599994553076</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.176898173950427</v>
       </c>
       <c r="K2">
-        <v>17.16112036441155</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.48617119229394</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.30961808635474</v>
+        <v>11.51151721681772</v>
       </c>
       <c r="O2">
-        <v>22.52562738601685</v>
+        <v>12.85397352327173</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.27309660565908</v>
+        <v>19.01958991523677</v>
       </c>
       <c r="C3">
-        <v>12.21561811179283</v>
+        <v>14.00788056810645</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.87188608239146</v>
+        <v>22.0892212708211</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>33.98592172241227</v>
       </c>
       <c r="G3">
-        <v>2.078418665049275</v>
+        <v>2.061154640923093</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10.21473204980117</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.218380209561459</v>
       </c>
       <c r="K3">
-        <v>15.96179904477829</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.26376229770435</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.57057522702531</v>
+        <v>11.5568606681937</v>
       </c>
       <c r="O3">
-        <v>21.76407079470918</v>
+        <v>12.6356504989686</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.36625592215649</v>
+        <v>18.15714383328142</v>
       </c>
       <c r="C4">
-        <v>11.62395673392428</v>
+        <v>13.39791350050283</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.43879223375765</v>
+        <v>21.26331857455313</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>32.87317007472286</v>
       </c>
       <c r="G4">
-        <v>2.08445226737518</v>
+        <v>2.064542741344346</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10.35002113212104</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.245944745205562</v>
       </c>
       <c r="K4">
-        <v>15.18773299912498</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.47603697613189</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.73437606005294</v>
+        <v>11.58858169607195</v>
       </c>
       <c r="O4">
-        <v>21.31288424339475</v>
+        <v>12.51755693682306</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.98541825358646</v>
+        <v>17.79363137735686</v>
       </c>
       <c r="C5">
-        <v>11.3756326059479</v>
+        <v>13.14120929935187</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.2600385916046</v>
+        <v>20.92089625620317</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>32.41672489117168</v>
       </c>
       <c r="G5">
-        <v>2.086945355586504</v>
+        <v>2.06594772371797</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10.40827051446074</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.257689199166413</v>
       </c>
       <c r="K5">
-        <v>14.86267774312891</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.14553582461352</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.8020387366371</v>
+        <v>11.60246137420489</v>
       </c>
       <c r="O5">
-        <v>21.13318358050437</v>
+        <v>12.47334998965541</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.92149392278892</v>
+        <v>17.73254106954072</v>
       </c>
       <c r="C6">
-        <v>11.33395948623491</v>
+        <v>13.098092577081</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.23022429298775</v>
+        <v>20.86369394941361</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>32.34077043421183</v>
       </c>
       <c r="G6">
-        <v>2.087361469669081</v>
+        <v>2.066182508570189</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10.41812510497259</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.259669846260556</v>
       </c>
       <c r="K6">
-        <v>14.80811772566284</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.09007856369895</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.81332963904635</v>
+        <v>11.60482301202054</v>
       </c>
       <c r="O6">
-        <v>21.10359684159261</v>
+        <v>12.46624292369068</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.36116574014696</v>
+        <v>18.15229025054508</v>
       </c>
       <c r="C7">
-        <v>11.62063711571326</v>
+        <v>13.39448443550074</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.43639047729908</v>
+        <v>21.25872380781534</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>32.86702557922775</v>
       </c>
       <c r="G7">
-        <v>2.084485748039036</v>
+        <v>2.064561590080007</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10.35079435260152</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.246101082134396</v>
       </c>
       <c r="K7">
-        <v>15.18338831148625</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.47161836650398</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.73528486755417</v>
+        <v>11.58876505212256</v>
       </c>
       <c r="O7">
-        <v>21.31044383892938</v>
+        <v>12.51694502470312</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.20262733628085</v>
+        <v>19.89879429299238</v>
       </c>
       <c r="C8">
-        <v>12.82262546546279</v>
+        <v>14.63094890511917</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.32594799601771</v>
+        <v>22.94960409914905</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>35.16148235708357</v>
       </c>
       <c r="G8">
-        <v>2.072091195656726</v>
+        <v>2.057620245496923</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10.08163172678586</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.19075709868459</v>
       </c>
       <c r="K8">
-        <v>16.75532547003407</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.07230191471885</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.39886267997238</v>
+        <v>11.52633242600441</v>
       </c>
       <c r="O8">
-        <v>22.25965459621448</v>
+        <v>12.77533143702786</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.47033194653073</v>
+        <v>22.94676465765495</v>
       </c>
       <c r="C9">
-        <v>14.96127199394683</v>
+        <v>16.79949447652473</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.08577211908101</v>
+        <v>26.06073083764834</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>39.52889149447646</v>
       </c>
       <c r="G9">
-        <v>2.048681368408359</v>
+        <v>2.044716689731227</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>9.669950279485207</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.099584816549023</v>
       </c>
       <c r="K9">
-        <v>19.54591308400007</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.92393313566123</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.76697018884667</v>
+        <v>11.43576094709499</v>
       </c>
       <c r="O9">
-        <v>24.25051983099042</v>
+        <v>13.41207632490645</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.67380800512799</v>
+        <v>24.96002794737679</v>
       </c>
       <c r="C10">
-        <v>16.4081081374818</v>
+        <v>18.23830360623134</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.43016709252017</v>
+        <v>28.21315751044958</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>42.63785015244132</v>
       </c>
       <c r="G10">
-        <v>2.031849616352549</v>
+        <v>2.035615368881859</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>9.454963890019794</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.044313300759385</v>
       </c>
       <c r="K10">
-        <v>21.42880125430316</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.85552802739846</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.31928756056103</v>
+        <v>11.39021134878293</v>
       </c>
       <c r="O10">
-        <v>25.79316868136726</v>
+        <v>13.96283758795699</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.63638578827511</v>
+        <v>25.82774911915224</v>
       </c>
       <c r="C11">
-        <v>17.04149957136836</v>
+        <v>18.85989409302936</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.02196886181351</v>
+        <v>29.16280626579355</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>44.02838594324782</v>
       </c>
       <c r="G11">
-        <v>2.024226479891273</v>
+        <v>2.031544459094772</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>9.380260876775017</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.021995394922197</v>
       </c>
       <c r="K11">
-        <v>22.25168744540981</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.70169723292111</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.11927738704497</v>
+        <v>11.37441690112804</v>
       </c>
       <c r="O11">
-        <v>26.51333466840532</v>
+        <v>14.23194712459572</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.99544689864391</v>
+        <v>26.14949482262343</v>
       </c>
       <c r="C12">
-        <v>17.27799293742407</v>
+        <v>19.09059531755542</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.24344939905339</v>
+        <v>29.51818872515595</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>44.551468149169</v>
       </c>
       <c r="G12">
-        <v>2.02134027109213</v>
+        <v>2.030011732152507</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>9.355666399344006</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.013977039465908</v>
       </c>
       <c r="K12">
-        <v>22.55870206483673</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.01771959533618</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.04408234923266</v>
+        <v>11.36917698059022</v>
       </c>
       <c r="O12">
-        <v>26.78884070441694</v>
+        <v>14.3365548237136</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.91835414425845</v>
+        <v>26.0805040898619</v>
       </c>
       <c r="C13">
-        <v>17.22720567731924</v>
+        <v>19.04111695392259</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.19586238370621</v>
+        <v>29.44183810878415</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>44.43896816105695</v>
       </c>
       <c r="G13">
-        <v>2.021961920452299</v>
+        <v>2.03034145827549</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>9.360792795617749</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.015684227564348</v>
       </c>
       <c r="K13">
-        <v>22.49278112270001</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.94984966676085</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.06025224541955</v>
+        <v>11.37027199125743</v>
       </c>
       <c r="O13">
-        <v>26.72937819698101</v>
+        <v>14.31390504084947</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.66603341631967</v>
+        <v>25.8543559738601</v>
       </c>
       <c r="C14">
-        <v>17.06102206101836</v>
+        <v>18.87896751105447</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.04024137758628</v>
+        <v>29.19212829981752</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>44.07149013874409</v>
       </c>
       <c r="G14">
-        <v>2.023989046470456</v>
+        <v>2.031418190414</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>9.378161226446572</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.021326880959585</v>
       </c>
       <c r="K14">
-        <v>22.27703630437614</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.72778315343716</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.11307996419131</v>
+        <v>11.37397076346774</v>
       </c>
       <c r="O14">
-        <v>26.53594362515552</v>
+        <v>14.24049894223746</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.5107791661725</v>
+        <v>25.71494519445353</v>
       </c>
       <c r="C15">
-        <v>16.95879897807152</v>
+        <v>18.77903834686522</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.94458461307265</v>
+        <v>29.03862432502214</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>43.84594498782302</v>
       </c>
       <c r="G15">
-        <v>2.025230647334871</v>
+        <v>2.032078835752093</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>9.389292404662857</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.024840387994062</v>
       </c>
       <c r="K15">
-        <v>22.14429575868555</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.59119620088999</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.14551023050615</v>
+        <v>11.37633388135347</v>
       </c>
       <c r="O15">
-        <v>26.41782882200608</v>
+        <v>14.19588833574983</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.6101234212646</v>
+        <v>24.9023585512786</v>
       </c>
       <c r="C16">
-        <v>16.36623284664184</v>
+        <v>18.19702296907364</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.39111187660252</v>
+        <v>28.15050211838193</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>42.54648970803533</v>
       </c>
       <c r="G16">
-        <v>2.032348126157623</v>
+        <v>2.035882712907575</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>9.460341989432427</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.045830903065204</v>
       </c>
       <c r="K16">
-        <v>21.37436684768222</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.79959705622193</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.33243345034251</v>
+        <v>11.39134543776612</v>
       </c>
       <c r="O16">
-        <v>25.74648574426838</v>
+        <v>13.94562705412284</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.04759490255854</v>
+        <v>24.39159157430712</v>
       </c>
       <c r="C17">
-        <v>15.99650411704348</v>
+        <v>17.831576725178</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.04665915498541</v>
+        <v>27.59810591551988</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>41.74315803099736</v>
       </c>
       <c r="G17">
-        <v>2.036720185785121</v>
+        <v>2.03823324913893</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>9.510101733074935</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.059449720546889</v>
       </c>
       <c r="K17">
-        <v>20.89358728954354</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.3058311333778</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.44804829972621</v>
+        <v>11.401838994893</v>
       </c>
       <c r="O17">
-        <v>25.33943872175385</v>
+        <v>13.79687901441053</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.72027948123554</v>
+        <v>24.09327733897326</v>
       </c>
       <c r="C18">
-        <v>15.7814997305456</v>
+        <v>17.6182783569323</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.84666339159022</v>
+        <v>27.27760148880263</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>41.2788665184511</v>
       </c>
       <c r="G18">
-        <v>2.039238342262578</v>
+        <v>2.039591813798553</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>9.540872206380012</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.067547096807694</v>
       </c>
       <c r="K18">
-        <v>20.61387225811725</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.0187506773581</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.51488784467049</v>
+        <v>11.40833623491937</v>
       </c>
       <c r="O18">
-        <v>25.10703625273548</v>
+        <v>13.71306900811728</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.60880173316685</v>
+        <v>23.99149215479258</v>
       </c>
       <c r="C19">
-        <v>15.70829411296704</v>
+        <v>17.54552468116205</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.77861983449229</v>
+        <v>27.16860699689427</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>41.12128479124453</v>
       </c>
       <c r="G19">
-        <v>2.040091665002767</v>
+        <v>2.040052966670573</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>9.551648844024193</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.070333333854156</v>
       </c>
       <c r="K19">
-        <v>20.51861181427964</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.92101347826654</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.53757671398516</v>
+        <v>11.41061440535779</v>
       </c>
       <c r="O19">
-        <v>25.02864072968452</v>
+        <v>13.68499120575104</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.10786467036746</v>
+        <v>24.44643235349391</v>
       </c>
       <c r="C20">
-        <v>16.03610378448457</v>
+        <v>17.87079992244516</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.08351934863536</v>
+        <v>27.65719728859609</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>41.82890628665454</v>
       </c>
       <c r="G20">
-        <v>2.036254443806408</v>
+        <v>2.03798235552916</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>9.504579580843902</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.057972446290615</v>
       </c>
       <c r="K20">
-        <v>20.94509487723058</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.35871018389053</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.43570550999212</v>
+        <v>11.40067393028991</v>
       </c>
       <c r="O20">
-        <v>25.38259066710705</v>
+        <v>13.8125325567712</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.74029157921903</v>
+        <v>25.92096617722368</v>
       </c>
       <c r="C21">
-        <v>17.10992359733618</v>
+        <v>18.926721321522</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.08602029310462</v>
+        <v>29.26558854889375</v>
       </c>
       <c r="F21">
-        <v>39.30090300329769</v>
+        <v>44.17952201135485</v>
       </c>
       <c r="G21">
-        <v>2.02339365406029</v>
+        <v>2.031101697705255</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>9.372956361593879</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.019657521214462</v>
       </c>
       <c r="K21">
-        <v>22.34052839440253</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.79312664020175</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.09754816938584</v>
+        <v>11.3728639619261</v>
       </c>
       <c r="O21">
-        <v>26.59268269618933</v>
+        <v>14.2619865265506</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.77558446345438</v>
+        <v>26.84482274652707</v>
       </c>
       <c r="C22">
-        <v>17.79226684888181</v>
+        <v>19.58956969089598</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.72605421751138</v>
+        <v>30.29215601218789</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>45.69550847259222</v>
       </c>
       <c r="G22">
-        <v>2.014988900473011</v>
+        <v>2.026655710408904</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>9.308652273082332</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>3.99715436371648</v>
       </c>
       <c r="K22">
-        <v>23.22587914884485</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.70508521509074</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.87973728078297</v>
+        <v>11.35902465453977</v>
       </c>
       <c r="O22">
-        <v>27.39995549613828</v>
+        <v>14.57149231389028</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.22582003183932</v>
+        <v>26.35536062547292</v>
       </c>
       <c r="C23">
-        <v>17.42979339392782</v>
+        <v>19.23826922243298</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.38576224711425</v>
+        <v>29.74649250424756</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>44.88825414341616</v>
       </c>
       <c r="G23">
-        <v>2.019476215615725</v>
+        <v>2.029024357444015</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>9.340856402786176</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.008923005697801</v>
       </c>
       <c r="K23">
-        <v>22.75570055686536</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.22059122201236</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.99568394754428</v>
+        <v>11.36600293023413</v>
       </c>
       <c r="O23">
-        <v>26.96753117697488</v>
+        <v>14.40485101377554</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.0806289084526</v>
+        <v>24.42165338129757</v>
       </c>
       <c r="C24">
-        <v>16.01820839758953</v>
+        <v>17.85307708141081</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.06686099287753</v>
+        <v>27.63049118838946</v>
       </c>
       <c r="F24">
-        <v>36.85121910575435</v>
+        <v>41.79014711098009</v>
       </c>
       <c r="G24">
-        <v>2.036464991103041</v>
+        <v>2.038095761988102</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>9.507069436793291</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.05863949002674</v>
       </c>
       <c r="K24">
-        <v>20.92181862002455</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.3348135770882</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.44128453092908</v>
+        <v>11.40119921209121</v>
       </c>
       <c r="O24">
-        <v>25.36307665476024</v>
+        <v>13.80545027507821</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.62191865324463</v>
+        <v>22.16220249696621</v>
       </c>
       <c r="C25">
-        <v>14.40524785461344</v>
+        <v>16.24012679781992</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.57183300671078</v>
+        <v>25.2421153715373</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>38.36388068068163</v>
       </c>
       <c r="G25">
-        <v>2.054935720260192</v>
+        <v>2.04813684257873</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>9.767261771465146</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.122281123192711</v>
       </c>
       <c r="K25">
-        <v>18.8212034036186</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.18211691102959</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.93499556469079</v>
+        <v>11.45669552786324</v>
       </c>
       <c r="O25">
-        <v>23.69808548652232</v>
+        <v>13.22546738474135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.34637956774901</v>
+        <v>12.69827809267175</v>
       </c>
       <c r="C2">
-        <v>14.94859238301626</v>
+        <v>8.598051137455585</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.39435707911079</v>
+        <v>24.38119412457513</v>
       </c>
       <c r="F2">
-        <v>35.77516886302018</v>
+        <v>39.2854062845096</v>
       </c>
       <c r="G2">
-        <v>2.055789265472306</v>
+        <v>3.603970106440488</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>10.01599994553076</v>
+        <v>17.29800784625574</v>
       </c>
       <c r="J2">
-        <v>4.176898173950427</v>
+        <v>7.529474323723931</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.51151721681772</v>
+        <v>15.96214754437588</v>
       </c>
       <c r="O2">
-        <v>12.85397352327173</v>
+        <v>18.65665522561837</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.01958991523677</v>
+        <v>12.0980240920947</v>
       </c>
       <c r="C3">
-        <v>14.00788056810645</v>
+        <v>8.081893876172835</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.0892212708211</v>
+        <v>24.13200284781451</v>
       </c>
       <c r="F3">
-        <v>33.98592172241227</v>
+        <v>39.03710725320976</v>
       </c>
       <c r="G3">
-        <v>2.061154640923093</v>
+        <v>3.605968780589484</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.21473204980117</v>
+        <v>17.40951418178398</v>
       </c>
       <c r="J3">
-        <v>4.218380209561459</v>
+        <v>7.553038055019439</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.5568606681937</v>
+        <v>15.9900872514857</v>
       </c>
       <c r="O3">
-        <v>12.6356504989686</v>
+        <v>18.71058814063014</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.15714383328142</v>
+        <v>11.71453958006393</v>
       </c>
       <c r="C4">
-        <v>13.39791350050283</v>
+        <v>7.74611239302687</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.26331857455313</v>
+        <v>23.98327575748047</v>
       </c>
       <c r="F4">
-        <v>32.87317007472286</v>
+        <v>38.89574261194738</v>
       </c>
       <c r="G4">
-        <v>2.064542741344346</v>
+        <v>3.607260174729513</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.35002113212104</v>
+        <v>17.48244855097002</v>
       </c>
       <c r="J4">
-        <v>4.245944745205562</v>
+        <v>7.568463883877579</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.58858169607195</v>
+        <v>16.00903487441506</v>
       </c>
       <c r="O4">
-        <v>12.51755693682306</v>
+        <v>18.74944699478321</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.79363137735686</v>
+        <v>11.55470569849868</v>
       </c>
       <c r="C5">
-        <v>13.14120929935187</v>
+        <v>7.604562852157555</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.92089625620317</v>
+        <v>23.92380453275681</v>
       </c>
       <c r="F5">
-        <v>32.41672489117168</v>
+        <v>38.84097356946033</v>
       </c>
       <c r="G5">
-        <v>2.06594772371797</v>
+        <v>3.607802624653147</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.40827051446074</v>
+        <v>17.51329168892316</v>
       </c>
       <c r="J5">
-        <v>4.257689199166413</v>
+        <v>7.574991110766714</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.60246137420489</v>
+        <v>16.01720762302181</v>
       </c>
       <c r="O5">
-        <v>12.47334998965541</v>
+        <v>18.76671954434211</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.73254106954072</v>
+        <v>11.52795655616836</v>
       </c>
       <c r="C6">
-        <v>13.098092577081</v>
+        <v>7.580774773725822</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.86369394941361</v>
+        <v>23.91399973618723</v>
       </c>
       <c r="F6">
-        <v>32.34077043421183</v>
+        <v>38.83205196115323</v>
       </c>
       <c r="G6">
-        <v>2.066182508570189</v>
+        <v>3.607893677817174</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.41812510497259</v>
+        <v>17.51848086574191</v>
       </c>
       <c r="J6">
-        <v>4.259669846260556</v>
+        <v>7.576089520563952</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.60482301202054</v>
+        <v>16.01859198768265</v>
       </c>
       <c r="O6">
-        <v>12.46624292369068</v>
+        <v>18.76967422927428</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.15229025054508</v>
+        <v>11.71239814577406</v>
       </c>
       <c r="C7">
-        <v>13.39448443550074</v>
+        <v>7.744222459716068</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.25872380781534</v>
+        <v>23.98246902863541</v>
       </c>
       <c r="F7">
-        <v>32.86702557922775</v>
+        <v>38.89499242497307</v>
       </c>
       <c r="G7">
-        <v>2.064561590080007</v>
+        <v>3.607267424750783</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.35079435260152</v>
+        <v>17.48285997281032</v>
       </c>
       <c r="J7">
-        <v>4.246101082134396</v>
+        <v>7.568550935857757</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.58876505212256</v>
+        <v>16.00914326620062</v>
       </c>
       <c r="O7">
-        <v>12.51694502470312</v>
+        <v>18.74967412876469</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.89879429299238</v>
+        <v>12.49451488629151</v>
       </c>
       <c r="C8">
-        <v>14.63094890511917</v>
+        <v>8.424007516803002</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.94960409914905</v>
+        <v>24.29442231367648</v>
       </c>
       <c r="F8">
-        <v>35.16148235708357</v>
+        <v>39.19752164110001</v>
       </c>
       <c r="G8">
-        <v>2.057620245496923</v>
+        <v>3.604645956324924</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>10.08163172678586</v>
+        <v>17.3355264706983</v>
       </c>
       <c r="J8">
-        <v>4.19075709868459</v>
+        <v>7.537400515405812</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.52633242600441</v>
+        <v>15.97140953184898</v>
       </c>
       <c r="O8">
-        <v>12.77533143702786</v>
+        <v>18.67405503147092</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.94676465765495</v>
+        <v>13.90277160189843</v>
       </c>
       <c r="C9">
-        <v>16.79949447652473</v>
+        <v>9.60666440794593</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.06073083764834</v>
+        <v>24.93733178402937</v>
       </c>
       <c r="F9">
-        <v>39.52889149447646</v>
+        <v>39.87639125713677</v>
       </c>
       <c r="G9">
-        <v>2.044716689731227</v>
+        <v>3.60001225622133</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9.669950279485207</v>
+        <v>17.08215660048987</v>
       </c>
       <c r="J9">
-        <v>4.099584816549023</v>
+        <v>7.483900214485847</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.43576094709499</v>
+        <v>15.91160668870446</v>
       </c>
       <c r="O9">
-        <v>13.41207632490645</v>
+        <v>18.57163865212575</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.96002794737679</v>
+        <v>14.85321527963026</v>
       </c>
       <c r="C10">
-        <v>18.23830360623134</v>
+        <v>10.38328970993891</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>28.21315751044958</v>
+        <v>25.42485896349632</v>
       </c>
       <c r="F10">
-        <v>42.63785015244132</v>
+        <v>40.42380954960214</v>
       </c>
       <c r="G10">
-        <v>2.035615368881859</v>
+        <v>3.596913576476826</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.454963890019794</v>
+        <v>16.91780673557703</v>
       </c>
       <c r="J10">
-        <v>4.044313300759385</v>
+        <v>7.449200598129911</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.39021134878293</v>
+        <v>15.87628206912536</v>
       </c>
       <c r="O10">
-        <v>13.96283758795699</v>
+        <v>18.52473659275564</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.82774911915224</v>
+        <v>15.26610023605101</v>
       </c>
       <c r="C11">
-        <v>18.85989409302936</v>
+        <v>10.71652972992137</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>29.16280626579355</v>
+        <v>25.64911146190335</v>
       </c>
       <c r="F11">
-        <v>44.02838594324782</v>
+        <v>40.68256916519324</v>
       </c>
       <c r="G11">
-        <v>2.031544459094772</v>
+        <v>3.595569567546763</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.380260876775017</v>
+        <v>16.84780356889368</v>
       </c>
       <c r="J11">
-        <v>4.021995394922197</v>
+        <v>7.434411677072434</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.37441690112804</v>
+        <v>15.86207360707076</v>
       </c>
       <c r="O11">
-        <v>14.23194712459572</v>
+        <v>18.50962451653743</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.14949482262343</v>
+        <v>15.41956949032859</v>
       </c>
       <c r="C12">
-        <v>19.09059531755542</v>
+        <v>10.83983669686404</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>29.51818872515595</v>
+        <v>25.73431549803811</v>
       </c>
       <c r="F12">
-        <v>44.551468149169</v>
+        <v>40.7818790724148</v>
       </c>
       <c r="G12">
-        <v>2.030011732152507</v>
+        <v>3.595070004427329</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>9.355666399344006</v>
+        <v>16.82198256019504</v>
       </c>
       <c r="J12">
-        <v>4.013977039465908</v>
+        <v>7.428954492171572</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.36917698059022</v>
+        <v>15.85696011221095</v>
       </c>
       <c r="O12">
-        <v>14.3365548237136</v>
+        <v>18.50480182270367</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.0805040898619</v>
+        <v>15.38664642171898</v>
       </c>
       <c r="C13">
-        <v>19.04111695392259</v>
+        <v>10.8134085744469</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>29.44183810878415</v>
+        <v>25.71595376296618</v>
       </c>
       <c r="F13">
-        <v>44.43896816105695</v>
+        <v>40.76043330677344</v>
       </c>
       <c r="G13">
-        <v>2.03034145827549</v>
+        <v>3.59517717770435</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>9.360792795617749</v>
+        <v>16.82751294078387</v>
       </c>
       <c r="J13">
-        <v>4.015684227564348</v>
+        <v>7.430123434806152</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.37027199125743</v>
+        <v>15.85804953300146</v>
       </c>
       <c r="O13">
-        <v>14.31390504084947</v>
+        <v>18.5058003797494</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.8543559738601</v>
+        <v>15.27878440130595</v>
       </c>
       <c r="C14">
-        <v>18.87896751105447</v>
+        <v>10.72673205787837</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>29.19212829981752</v>
+        <v>25.65611595480864</v>
       </c>
       <c r="F14">
-        <v>44.07149013874409</v>
+        <v>40.69071338070314</v>
       </c>
       <c r="G14">
-        <v>2.031418190414</v>
+        <v>3.595528280399366</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.378161226446572</v>
+        <v>16.84566545861037</v>
       </c>
       <c r="J14">
-        <v>4.021326880959585</v>
+        <v>7.433959845086132</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.37397076346774</v>
+        <v>15.86164757063328</v>
       </c>
       <c r="O14">
-        <v>14.24049894223746</v>
+        <v>18.50920968874361</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.71494519445353</v>
+        <v>15.21233841719592</v>
       </c>
       <c r="C15">
-        <v>18.77903834686522</v>
+        <v>10.67326466135602</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>29.03862432502214</v>
+        <v>25.61949850779066</v>
       </c>
       <c r="F15">
-        <v>43.84594498782302</v>
+        <v>40.64817791311333</v>
       </c>
       <c r="G15">
-        <v>2.032078835752093</v>
+        <v>3.595744561557396</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.389292404662857</v>
+        <v>16.85687405018354</v>
       </c>
       <c r="J15">
-        <v>4.024840387994062</v>
+        <v>7.43632838237767</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.37633388135347</v>
+        <v>15.86388621672685</v>
       </c>
       <c r="O15">
-        <v>14.19588833574983</v>
+        <v>18.51141532136985</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.9023585512786</v>
+        <v>14.82583313642706</v>
       </c>
       <c r="C16">
-        <v>18.19702296907364</v>
+        <v>10.3611081141432</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>28.15050211838193</v>
+        <v>25.41024721925471</v>
       </c>
       <c r="F16">
-        <v>42.54648970803533</v>
+        <v>40.40708841815931</v>
       </c>
       <c r="G16">
-        <v>2.035882712907575</v>
+        <v>3.597002726406669</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.460341989432427</v>
+        <v>16.92247766331446</v>
       </c>
       <c r="J16">
-        <v>4.045830903065204</v>
+        <v>7.450187117525518</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.39134543776612</v>
+        <v>15.87724801579274</v>
       </c>
       <c r="O16">
-        <v>13.94562705412284</v>
+        <v>18.52584987857374</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.39159157430712</v>
+        <v>14.58367421589368</v>
       </c>
       <c r="C17">
-        <v>17.831576725178</v>
+        <v>10.16447348554256</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>27.59810591551988</v>
+        <v>25.28246119343406</v>
       </c>
       <c r="F17">
-        <v>41.74315803099736</v>
+        <v>40.26162779092885</v>
       </c>
       <c r="G17">
-        <v>2.03823324913893</v>
+        <v>3.597791335719684</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9.510101733074935</v>
+        <v>16.96394479556932</v>
       </c>
       <c r="J17">
-        <v>4.059449720546889</v>
+        <v>7.458943998856045</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.401838994893</v>
+        <v>15.88592120309744</v>
       </c>
       <c r="O17">
-        <v>13.79687901441053</v>
+        <v>18.53630280116307</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.09327733897326</v>
+        <v>14.44256139445571</v>
       </c>
       <c r="C18">
-        <v>17.6182783569323</v>
+        <v>10.04948702229495</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>27.27760148880263</v>
+        <v>25.20919917278948</v>
       </c>
       <c r="F18">
-        <v>41.2788665184511</v>
+        <v>40.17888390643878</v>
       </c>
       <c r="G18">
-        <v>2.039591813798553</v>
+        <v>3.598251100038169</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.540872206380012</v>
+        <v>16.98824347017229</v>
       </c>
       <c r="J18">
-        <v>4.067547096807694</v>
+        <v>7.464074494121673</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.40833623491937</v>
+        <v>15.89108498575515</v>
       </c>
       <c r="O18">
-        <v>13.71306900811728</v>
+        <v>18.54290061127469</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.99149215479258</v>
+        <v>14.39447150879365</v>
       </c>
       <c r="C19">
-        <v>17.54552468116205</v>
+        <v>10.01023047391509</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>27.16860699689427</v>
+        <v>25.184436812617</v>
       </c>
       <c r="F19">
-        <v>41.12128479124453</v>
+        <v>40.15102876283938</v>
       </c>
       <c r="G19">
-        <v>2.040052966670573</v>
+        <v>3.598407830750127</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.551648844024193</v>
+        <v>16.99654741401879</v>
       </c>
       <c r="J19">
-        <v>4.070333333854156</v>
+        <v>7.465827702172977</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.41061440535779</v>
+        <v>15.89286346342293</v>
       </c>
       <c r="O19">
-        <v>13.68499120575104</v>
+        <v>18.54523492787878</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.44643235349391</v>
+        <v>14.60964241332461</v>
       </c>
       <c r="C20">
-        <v>17.87079992244516</v>
+        <v>10.18560093086494</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27.65719728859609</v>
+        <v>25.29604020993517</v>
       </c>
       <c r="F20">
-        <v>41.82890628665454</v>
+        <v>40.27701752745731</v>
       </c>
       <c r="G20">
-        <v>2.03798235552916</v>
+        <v>3.597706747959553</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.504579580843902</v>
+        <v>16.95948417268984</v>
       </c>
       <c r="J20">
-        <v>4.057972446290615</v>
+        <v>7.458002110510028</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.40067393028991</v>
+        <v>15.88497980018747</v>
       </c>
       <c r="O20">
-        <v>13.8125325567712</v>
+        <v>18.5351294282139</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.92096617722368</v>
+        <v>15.31054486172424</v>
       </c>
       <c r="C21">
-        <v>18.926721321522</v>
+        <v>10.75226930887352</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>29.26558854889375</v>
+        <v>25.67368461509021</v>
       </c>
       <c r="F21">
-        <v>44.17952201135485</v>
+        <v>40.71115652594594</v>
       </c>
       <c r="G21">
-        <v>2.031101697705255</v>
+        <v>3.595424898737946</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>9.372956361593879</v>
+        <v>16.84031493529335</v>
       </c>
       <c r="J21">
-        <v>4.019657521214462</v>
+        <v>7.432829117223115</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.3728639619261</v>
+        <v>15.86058350028808</v>
       </c>
       <c r="O21">
-        <v>14.2619865265506</v>
+        <v>18.50818383212345</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.84482274652707</v>
+        <v>15.75180277702248</v>
       </c>
       <c r="C22">
-        <v>19.58956969089598</v>
+        <v>11.10581232598255</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>30.29215601218789</v>
+        <v>25.92212251003643</v>
       </c>
       <c r="F22">
-        <v>45.69550847259222</v>
+        <v>41.00256696012404</v>
       </c>
       <c r="G22">
-        <v>2.026655710408904</v>
+        <v>3.593988252495772</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.308652273082332</v>
+        <v>16.76644077155879</v>
       </c>
       <c r="J22">
-        <v>3.99715436371648</v>
+        <v>7.417210887448793</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.35902465453977</v>
+        <v>15.84619473773157</v>
       </c>
       <c r="O22">
-        <v>14.57149231389028</v>
+        <v>18.49582061580908</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.35536062547292</v>
+        <v>15.51785743414259</v>
       </c>
       <c r="C23">
-        <v>19.23826922243298</v>
+        <v>10.91865719353123</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>29.74649250424756</v>
+        <v>25.78940123950644</v>
       </c>
       <c r="F23">
-        <v>44.88825414341616</v>
+        <v>40.84635947664204</v>
       </c>
       <c r="G23">
-        <v>2.029024357444015</v>
+        <v>3.594750030959761</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.340856402786176</v>
+        <v>16.80550083532082</v>
       </c>
       <c r="J23">
-        <v>4.008923005697801</v>
+        <v>7.425470397607493</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.36600293023413</v>
+        <v>15.85373216851506</v>
       </c>
       <c r="O23">
-        <v>14.40485101377554</v>
+        <v>18.50193749742876</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.42165338129757</v>
+        <v>14.59790807949065</v>
       </c>
       <c r="C24">
-        <v>17.85307708141081</v>
+        <v>10.17605525113832</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>27.63049118838946</v>
+        <v>25.28990049607679</v>
       </c>
       <c r="F24">
-        <v>41.79014711098009</v>
+        <v>40.27005707001363</v>
       </c>
       <c r="G24">
-        <v>2.038095761988102</v>
+        <v>3.597744970201433</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.507069436793291</v>
+        <v>16.9614993917527</v>
       </c>
       <c r="J24">
-        <v>4.05863949002674</v>
+        <v>7.458427639036019</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.40119921209121</v>
+        <v>15.8854048556257</v>
       </c>
       <c r="O24">
-        <v>13.80545027507821</v>
+        <v>18.5356580779743</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.16220249696621</v>
+        <v>13.53611505895854</v>
       </c>
       <c r="C25">
-        <v>16.24012679781992</v>
+        <v>9.302905310005841</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.2421153715373</v>
+        <v>24.76046049315855</v>
       </c>
       <c r="F25">
-        <v>38.36388068068163</v>
+        <v>39.6839218618771</v>
       </c>
       <c r="G25">
-        <v>2.04813684257873</v>
+        <v>3.601211868195855</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>9.767261771465146</v>
+        <v>17.14688112501953</v>
       </c>
       <c r="J25">
-        <v>4.122281123192711</v>
+        <v>7.497563194865618</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.45669552786324</v>
+        <v>15.92626958708597</v>
       </c>
       <c r="O25">
-        <v>13.22546738474135</v>
+        <v>18.59439300510859</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.69827809267175</v>
+        <v>20.34637956774901</v>
       </c>
       <c r="C2">
-        <v>8.598051137455585</v>
+        <v>14.94859238301618</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.38119412457513</v>
+        <v>23.39435707911075</v>
       </c>
       <c r="F2">
-        <v>39.2854062845096</v>
+        <v>35.77516886302022</v>
       </c>
       <c r="G2">
-        <v>3.603970106440488</v>
+        <v>2.055789265472171</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.29800784625574</v>
+        <v>10.01599994553079</v>
       </c>
       <c r="J2">
-        <v>7.529474323723931</v>
+        <v>4.176898173950406</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.96214754437588</v>
+        <v>11.51151721681771</v>
       </c>
       <c r="O2">
-        <v>18.65665522561837</v>
+        <v>12.85397352327181</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.0980240920947</v>
+        <v>19.01958991523683</v>
       </c>
       <c r="C3">
-        <v>8.081893876172835</v>
+        <v>14.0078805681064</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.13200284781451</v>
+        <v>22.08922127082118</v>
       </c>
       <c r="F3">
-        <v>39.03710725320976</v>
+        <v>33.98592172241234</v>
       </c>
       <c r="G3">
-        <v>3.605968780589484</v>
+        <v>2.061154640923092</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.40951418178398</v>
+        <v>10.21473204980108</v>
       </c>
       <c r="J3">
-        <v>7.553038055019439</v>
+        <v>4.218380209561433</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.9900872514857</v>
+        <v>11.55686066819367</v>
       </c>
       <c r="O3">
-        <v>18.71058814063014</v>
+        <v>12.63565049896856</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.71453958006393</v>
+        <v>18.15714383328145</v>
       </c>
       <c r="C4">
-        <v>7.74611239302687</v>
+        <v>13.39791350050276</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.98327575748047</v>
+        <v>21.26331857455317</v>
       </c>
       <c r="F4">
-        <v>38.89574261194738</v>
+        <v>32.8731700747229</v>
       </c>
       <c r="G4">
-        <v>3.607260174729513</v>
+        <v>2.064542741344344</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.48244855097002</v>
+        <v>10.35002113212099</v>
       </c>
       <c r="J4">
-        <v>7.568463883877579</v>
+        <v>4.245944745205621</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.00903487441506</v>
+        <v>11.58858169607195</v>
       </c>
       <c r="O4">
-        <v>18.74944699478321</v>
+        <v>12.51755693682307</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.55470569849868</v>
+        <v>17.79363137735686</v>
       </c>
       <c r="C5">
-        <v>7.604562852157555</v>
+        <v>13.14120929935192</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.92380453275681</v>
+        <v>20.92089625620313</v>
       </c>
       <c r="F5">
-        <v>38.84097356946033</v>
+        <v>32.41672489117168</v>
       </c>
       <c r="G5">
-        <v>3.607802624653147</v>
+        <v>2.065947723717968</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.51329168892316</v>
+        <v>10.40827051446075</v>
       </c>
       <c r="J5">
-        <v>7.574991110766714</v>
+        <v>4.257689199166355</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.01720762302181</v>
+        <v>11.60246137420491</v>
       </c>
       <c r="O5">
-        <v>18.76671954434211</v>
+        <v>12.47334998965539</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.52795655616836</v>
+        <v>17.73254106954063</v>
       </c>
       <c r="C6">
-        <v>7.580774773725822</v>
+        <v>13.09809257708105</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.91399973618723</v>
+        <v>20.86369394941361</v>
       </c>
       <c r="F6">
-        <v>38.83205196115323</v>
+        <v>32.34077043421188</v>
       </c>
       <c r="G6">
-        <v>3.607893677817174</v>
+        <v>2.066182508570324</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.51848086574191</v>
+        <v>10.41812510497277</v>
       </c>
       <c r="J6">
-        <v>7.576089520563952</v>
+        <v>4.259669846260617</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.01859198768265</v>
+        <v>11.60482301202063</v>
       </c>
       <c r="O6">
-        <v>18.76967422927428</v>
+        <v>12.46624292369083</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.71239814577406</v>
+        <v>18.15229025054506</v>
       </c>
       <c r="C7">
-        <v>7.744222459716068</v>
+        <v>13.39448443550065</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.98246902863541</v>
+        <v>21.25872380781527</v>
       </c>
       <c r="F7">
-        <v>38.89499242497307</v>
+        <v>32.86702557922779</v>
       </c>
       <c r="G7">
-        <v>3.607267424750783</v>
+        <v>2.064561590080276</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.48285997281032</v>
+        <v>10.35079435260168</v>
       </c>
       <c r="J7">
-        <v>7.568550935857757</v>
+        <v>4.246101082134395</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.00914326620062</v>
+        <v>11.58876505212265</v>
       </c>
       <c r="O7">
-        <v>18.74967412876469</v>
+        <v>12.51694502470329</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.49451488629151</v>
+        <v>19.89879429299236</v>
       </c>
       <c r="C8">
-        <v>8.424007516803002</v>
+        <v>14.63094890511925</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.29442231367648</v>
+        <v>22.94960409914896</v>
       </c>
       <c r="F8">
-        <v>39.19752164110001</v>
+        <v>35.16148235708356</v>
       </c>
       <c r="G8">
-        <v>3.604645956324924</v>
+        <v>2.057620245496788</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.3355264706983</v>
+        <v>10.08163172678598</v>
       </c>
       <c r="J8">
-        <v>7.537400515405812</v>
+        <v>4.190757098684593</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.97140953184898</v>
+        <v>11.52633242600443</v>
       </c>
       <c r="O8">
-        <v>18.67405503147092</v>
+        <v>12.77533143702798</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.90277160189843</v>
+        <v>22.94676465765499</v>
       </c>
       <c r="C9">
-        <v>9.60666440794593</v>
+        <v>16.79949447652468</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>24.93733178402937</v>
+        <v>26.06073083764833</v>
       </c>
       <c r="F9">
-        <v>39.87639125713677</v>
+        <v>39.52889149447649</v>
       </c>
       <c r="G9">
-        <v>3.60001225622133</v>
+        <v>2.044716689731361</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.08215660048987</v>
+        <v>9.669950279485166</v>
       </c>
       <c r="J9">
-        <v>7.483900214485847</v>
+        <v>4.099584816549025</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.91160668870446</v>
+        <v>11.43576094709499</v>
       </c>
       <c r="O9">
-        <v>18.57163865212575</v>
+        <v>13.41207632490644</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.85321527963026</v>
+        <v>24.9600279473767</v>
       </c>
       <c r="C10">
-        <v>10.38328970993891</v>
+        <v>18.23830360623133</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>25.42485896349632</v>
+        <v>28.21315751044956</v>
       </c>
       <c r="F10">
-        <v>40.42380954960214</v>
+        <v>42.6378501524413</v>
       </c>
       <c r="G10">
-        <v>3.596913576476826</v>
+        <v>2.03561536888186</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.91780673557703</v>
+        <v>9.454963890019958</v>
       </c>
       <c r="J10">
-        <v>7.449200598129911</v>
+        <v>4.044313300759412</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.87628206912536</v>
+        <v>11.39021134878295</v>
       </c>
       <c r="O10">
-        <v>18.52473659275564</v>
+        <v>13.96283758795706</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.26610023605101</v>
+        <v>25.82774911915228</v>
       </c>
       <c r="C11">
-        <v>10.71652972992137</v>
+        <v>18.85989409302931</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25.64911146190335</v>
+        <v>29.16280626579356</v>
       </c>
       <c r="F11">
-        <v>40.68256916519324</v>
+        <v>44.02838594324782</v>
       </c>
       <c r="G11">
-        <v>3.595569567546763</v>
+        <v>2.031544459094773</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.84780356889368</v>
+        <v>9.380260876775026</v>
       </c>
       <c r="J11">
-        <v>7.434411677072434</v>
+        <v>4.021995394922224</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.86207360707076</v>
+        <v>11.37441690112807</v>
       </c>
       <c r="O11">
-        <v>18.50962451653743</v>
+        <v>14.23194712459572</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.41956949032859</v>
+        <v>26.14949482262346</v>
       </c>
       <c r="C12">
-        <v>10.83983669686404</v>
+        <v>19.09059531755538</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>25.73431549803811</v>
+        <v>29.51818872515597</v>
       </c>
       <c r="F12">
-        <v>40.7818790724148</v>
+        <v>44.55146814916902</v>
       </c>
       <c r="G12">
-        <v>3.595070004427329</v>
+        <v>2.030011732152639</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.82198256019504</v>
+        <v>9.355666399343903</v>
       </c>
       <c r="J12">
-        <v>7.428954492171572</v>
+        <v>4.013977039465876</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.85696011221095</v>
+        <v>11.36917698059016</v>
       </c>
       <c r="O12">
-        <v>18.50480182270367</v>
+        <v>14.33655482371357</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.38664642171898</v>
+        <v>26.08050408986183</v>
       </c>
       <c r="C13">
-        <v>10.8134085744469</v>
+        <v>19.04111695392258</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>25.71595376296618</v>
+        <v>29.44183810878417</v>
       </c>
       <c r="F13">
-        <v>40.76043330677344</v>
+        <v>44.43896816105698</v>
       </c>
       <c r="G13">
-        <v>3.59517717770435</v>
+        <v>2.030341458275624</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.82751294078387</v>
+        <v>9.360792795617865</v>
       </c>
       <c r="J13">
-        <v>7.430123434806152</v>
+        <v>4.015684227564321</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.85804953300146</v>
+        <v>11.37027199125742</v>
       </c>
       <c r="O13">
-        <v>18.5058003797494</v>
+        <v>14.3139050408495</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.27878440130595</v>
+        <v>25.85435597386008</v>
       </c>
       <c r="C14">
-        <v>10.72673205787837</v>
+        <v>18.87896751105451</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25.65611595480864</v>
+        <v>29.19212829981751</v>
       </c>
       <c r="F14">
-        <v>40.69071338070314</v>
+        <v>44.07149013874407</v>
       </c>
       <c r="G14">
-        <v>3.595528280399366</v>
+        <v>2.031418190413865</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.84566545861037</v>
+        <v>9.378161226446625</v>
       </c>
       <c r="J14">
-        <v>7.433959845086132</v>
+        <v>4.021326880959637</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.86164757063328</v>
+        <v>11.37397076346777</v>
       </c>
       <c r="O14">
-        <v>18.50920968874361</v>
+        <v>14.24049894223748</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.21233841719592</v>
+        <v>25.71494519445354</v>
       </c>
       <c r="C15">
-        <v>10.67326466135602</v>
+        <v>18.7790383468652</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>25.61949850779066</v>
+        <v>29.03862432502213</v>
       </c>
       <c r="F15">
-        <v>40.64817791311333</v>
+        <v>43.84594498782303</v>
       </c>
       <c r="G15">
-        <v>3.595744561557396</v>
+        <v>2.032078835751825</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.85687405018354</v>
+        <v>9.389292404662882</v>
       </c>
       <c r="J15">
-        <v>7.43632838237767</v>
+        <v>4.024840387994008</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.86388621672685</v>
+        <v>11.37633388135346</v>
       </c>
       <c r="O15">
-        <v>18.51141532136985</v>
+        <v>14.19588833574985</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.82583313642706</v>
+        <v>24.90235855127852</v>
       </c>
       <c r="C16">
-        <v>10.3611081141432</v>
+        <v>18.19702296907377</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>25.41024721925471</v>
+        <v>28.15050211838189</v>
       </c>
       <c r="F16">
-        <v>40.40708841815931</v>
+        <v>42.54648970803535</v>
       </c>
       <c r="G16">
-        <v>3.597002726406669</v>
+        <v>2.035882712907575</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.92247766331446</v>
+        <v>9.460341989432596</v>
       </c>
       <c r="J16">
-        <v>7.450187117525518</v>
+        <v>4.045830903065174</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.87724801579274</v>
+        <v>11.39134543776617</v>
       </c>
       <c r="O16">
-        <v>18.52584987857374</v>
+        <v>13.94562705412292</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.58367421589368</v>
+        <v>24.39159157430721</v>
       </c>
       <c r="C17">
-        <v>10.16447348554256</v>
+        <v>17.83157672517788</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>25.28246119343406</v>
+        <v>27.59810591551991</v>
       </c>
       <c r="F17">
-        <v>40.26162779092885</v>
+        <v>41.74315803099739</v>
       </c>
       <c r="G17">
-        <v>3.597791335719684</v>
+        <v>2.038233249138797</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.96394479556932</v>
+        <v>9.510101733074814</v>
       </c>
       <c r="J17">
-        <v>7.458943998856045</v>
+        <v>4.059449720546869</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.88592120309744</v>
+        <v>11.40183899489293</v>
       </c>
       <c r="O17">
-        <v>18.53630280116307</v>
+        <v>13.79687901441051</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.44256139445571</v>
+        <v>24.09327733897329</v>
       </c>
       <c r="C18">
-        <v>10.04948702229495</v>
+        <v>17.61827835693229</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>25.20919917278948</v>
+        <v>27.27760148880266</v>
       </c>
       <c r="F18">
-        <v>40.17888390643878</v>
+        <v>41.2788665184511</v>
       </c>
       <c r="G18">
-        <v>3.598251100038169</v>
+        <v>2.039591813798686</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.98824347017229</v>
+        <v>9.540872206379966</v>
       </c>
       <c r="J18">
-        <v>7.464074494121673</v>
+        <v>4.067547096807689</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.89108498575515</v>
+        <v>11.40833623491937</v>
       </c>
       <c r="O18">
-        <v>18.54290061127469</v>
+        <v>13.71306900811725</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.39447150879365</v>
+        <v>23.99149215479254</v>
       </c>
       <c r="C19">
-        <v>10.01023047391509</v>
+        <v>17.54552468116199</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.184436812617</v>
+        <v>27.16860699689428</v>
       </c>
       <c r="F19">
-        <v>40.15102876283938</v>
+        <v>41.12128479124459</v>
       </c>
       <c r="G19">
-        <v>3.598407830750127</v>
+        <v>2.040052966670572</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.99654741401879</v>
+        <v>9.551648844024312</v>
       </c>
       <c r="J19">
-        <v>7.465827702172977</v>
+        <v>4.070333333854237</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.89286346342293</v>
+        <v>11.41061440535784</v>
       </c>
       <c r="O19">
-        <v>18.54523492787878</v>
+        <v>13.68499120575113</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.60964241332461</v>
+        <v>24.44643235349392</v>
       </c>
       <c r="C20">
-        <v>10.18560093086494</v>
+        <v>17.87079992244525</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>25.29604020993517</v>
+        <v>27.65719728859606</v>
       </c>
       <c r="F20">
-        <v>40.27701752745731</v>
+        <v>41.82890628665457</v>
       </c>
       <c r="G20">
-        <v>3.597706747959553</v>
+        <v>2.037982355529159</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.95948417268984</v>
+        <v>9.504579580843936</v>
       </c>
       <c r="J20">
-        <v>7.458002110510028</v>
+        <v>4.057972446290586</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.88497980018747</v>
+        <v>11.40067393028992</v>
       </c>
       <c r="O20">
-        <v>18.5351294282139</v>
+        <v>13.8125325567712</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.31054486172424</v>
+        <v>25.92096617722371</v>
       </c>
       <c r="C21">
-        <v>10.75226930887352</v>
+        <v>18.92672132152204</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>25.67368461509021</v>
+        <v>29.26558854889374</v>
       </c>
       <c r="F21">
-        <v>40.71115652594594</v>
+        <v>44.17952201135485</v>
       </c>
       <c r="G21">
-        <v>3.595424898737946</v>
+        <v>2.031101697705388</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.84031493529335</v>
+        <v>9.372956361593866</v>
       </c>
       <c r="J21">
-        <v>7.432829117223115</v>
+        <v>4.019657521214465</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.86058350028808</v>
+        <v>11.3728639619261</v>
       </c>
       <c r="O21">
-        <v>18.50818383212345</v>
+        <v>14.26198652655058</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.75180277702248</v>
+        <v>26.84482274652706</v>
       </c>
       <c r="C22">
-        <v>11.10581232598255</v>
+        <v>19.58956969089598</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.92212251003643</v>
+        <v>30.29215601218787</v>
       </c>
       <c r="F22">
-        <v>41.00256696012404</v>
+        <v>45.69550847259218</v>
       </c>
       <c r="G22">
-        <v>3.593988252495772</v>
+        <v>2.02665571040877</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.76644077155879</v>
+        <v>9.308652273082325</v>
       </c>
       <c r="J22">
-        <v>7.417210887448793</v>
+        <v>3.997154363716514</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.84619473773157</v>
+        <v>11.35902465453977</v>
       </c>
       <c r="O22">
-        <v>18.49582061580908</v>
+        <v>14.57149231389027</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.51785743414259</v>
+        <v>26.35536062547291</v>
       </c>
       <c r="C23">
-        <v>10.91865719353123</v>
+        <v>19.23826922243303</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>25.78940123950644</v>
+        <v>29.74649250424754</v>
       </c>
       <c r="F23">
-        <v>40.84635947664204</v>
+        <v>44.88825414341616</v>
       </c>
       <c r="G23">
-        <v>3.594750030959761</v>
+        <v>2.029024357444015</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.80550083532082</v>
+        <v>9.340856402786232</v>
       </c>
       <c r="J23">
-        <v>7.425470397607493</v>
+        <v>4.008923005697828</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.85373216851506</v>
+        <v>11.36600293023413</v>
       </c>
       <c r="O23">
-        <v>18.50193749742876</v>
+        <v>14.40485101377556</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.59790807949065</v>
+        <v>24.42165338129759</v>
       </c>
       <c r="C24">
-        <v>10.17605525113832</v>
+        <v>17.8530770814108</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>25.28990049607679</v>
+        <v>27.63049118838945</v>
       </c>
       <c r="F24">
-        <v>40.27005707001363</v>
+        <v>41.79014711098009</v>
       </c>
       <c r="G24">
-        <v>3.597744970201433</v>
+        <v>2.038095761988102</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.9614993917527</v>
+        <v>9.507069436793273</v>
       </c>
       <c r="J24">
-        <v>7.458427639036019</v>
+        <v>4.058639490026745</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.8854048556257</v>
+        <v>11.4011992120912</v>
       </c>
       <c r="O24">
-        <v>18.5356580779743</v>
+        <v>13.8054502750782</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.53611505895854</v>
+        <v>22.16220249696628</v>
       </c>
       <c r="C25">
-        <v>9.302905310005841</v>
+        <v>16.24012679781992</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24.76046049315855</v>
+        <v>25.24211537153732</v>
       </c>
       <c r="F25">
-        <v>39.6839218618771</v>
+        <v>38.36388068068167</v>
       </c>
       <c r="G25">
-        <v>3.601211868195855</v>
+        <v>2.048136842578595</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.14688112501953</v>
+        <v>9.767261771465058</v>
       </c>
       <c r="J25">
-        <v>7.497563194865618</v>
+        <v>4.122281123192708</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.92626958708597</v>
+        <v>11.4566955278632</v>
       </c>
       <c r="O25">
-        <v>18.59439300510859</v>
+        <v>13.2254673847413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.34637956774901</v>
+        <v>11.20898336765293</v>
       </c>
       <c r="C2">
-        <v>14.94859238301618</v>
+        <v>7.420039113578716</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.39435707911075</v>
+        <v>16.45506931640725</v>
       </c>
       <c r="F2">
-        <v>35.77516886302022</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.055789265472171</v>
+        <v>17.72198834396051</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.789690908501408</v>
       </c>
       <c r="I2">
-        <v>10.01599994553079</v>
+        <v>2.617792520735359</v>
       </c>
       <c r="J2">
-        <v>4.176898173950406</v>
+        <v>8.166826442312805</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.55086618391109</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.4432079303899</v>
       </c>
       <c r="N2">
-        <v>11.51151721681771</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.85397352327181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.944765325912</v>
+      </c>
+      <c r="P2">
+        <v>12.292934905473</v>
+      </c>
+      <c r="Q2">
+        <v>12.65448786670765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.01958991523683</v>
+        <v>10.53369333518414</v>
       </c>
       <c r="C3">
-        <v>14.0078805681064</v>
+        <v>7.158433588809274</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>22.08922127082118</v>
+        <v>15.58819349516139</v>
       </c>
       <c r="F3">
-        <v>33.98592172241234</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.061154640923092</v>
+        <v>17.63277519477363</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.618262839168907</v>
       </c>
       <c r="I3">
-        <v>10.21473204980108</v>
+        <v>2.514243587888289</v>
       </c>
       <c r="J3">
-        <v>4.218380209561433</v>
+        <v>8.220468818607454</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.6716736901619</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.940356096674298</v>
       </c>
       <c r="N3">
-        <v>11.55686066819367</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.63565049896856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.18943766165499</v>
+      </c>
+      <c r="P3">
+        <v>12.39455096378238</v>
+      </c>
+      <c r="Q3">
+        <v>12.70777408965919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.15714383328145</v>
+        <v>10.09321379195107</v>
       </c>
       <c r="C4">
-        <v>13.39791350050276</v>
+        <v>6.994610361981336</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>21.26331857455317</v>
+        <v>15.03016197888619</v>
       </c>
       <c r="F4">
-        <v>32.8731700747229</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.064542741344344</v>
+        <v>17.58685227455455</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.613416989988062</v>
       </c>
       <c r="I4">
-        <v>10.35002113212099</v>
+        <v>2.495666763600904</v>
       </c>
       <c r="J4">
-        <v>4.245944745205621</v>
+        <v>8.255450654244477</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.74875829924621</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.617115031281241</v>
       </c>
       <c r="N4">
-        <v>11.58858169607195</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>12.51755693682307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.70303012479215</v>
+      </c>
+      <c r="P4">
+        <v>12.45877888057298</v>
+      </c>
+      <c r="Q4">
+        <v>12.7449804220931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.79363137735686</v>
+        <v>9.902482003870718</v>
       </c>
       <c r="C5">
-        <v>13.14120929935192</v>
+        <v>6.933041272502918</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.92089625620313</v>
+        <v>14.79616402316367</v>
       </c>
       <c r="F5">
-        <v>32.41672489117168</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.065947723717968</v>
+        <v>17.56142144260851</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.66023040361017</v>
       </c>
       <c r="I5">
-        <v>10.40827051446075</v>
+        <v>2.527702985530222</v>
       </c>
       <c r="J5">
-        <v>4.257689199166355</v>
+        <v>8.268925315623232</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.77766077163485</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.481786752579591</v>
       </c>
       <c r="N5">
-        <v>11.60246137420491</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>12.47334998965539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.49922011394871</v>
+      </c>
+      <c r="P5">
+        <v>12.48556370622292</v>
+      </c>
+      <c r="Q5">
+        <v>12.75786730228101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.73254106954063</v>
+        <v>9.864593513501728</v>
       </c>
       <c r="C6">
-        <v>13.09809257708105</v>
+        <v>6.930070237692163</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.86369394941361</v>
+        <v>14.75662230206187</v>
       </c>
       <c r="F6">
-        <v>32.34077043421188</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.066182508570324</v>
+        <v>17.54647211273116</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.668231355014338</v>
       </c>
       <c r="I6">
-        <v>10.41812510497277</v>
+        <v>2.537193099843596</v>
       </c>
       <c r="J6">
-        <v>4.259669846260617</v>
+        <v>8.269620974550293</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.77855814794255</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.459034828648432</v>
       </c>
       <c r="N6">
-        <v>11.60482301202063</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>12.46624292369083</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.46500386080701</v>
+      </c>
+      <c r="P6">
+        <v>12.49022842529885</v>
+      </c>
+      <c r="Q6">
+        <v>12.75595354756101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.15229025054506</v>
+        <v>10.07508930746275</v>
       </c>
       <c r="C7">
-        <v>13.39448443550065</v>
+        <v>7.013509921349979</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>21.25872380781527</v>
+        <v>15.0262186954813</v>
       </c>
       <c r="F7">
-        <v>32.86702557922779</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.064561590080276</v>
+        <v>17.55692057259462</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.614483743253043</v>
       </c>
       <c r="I7">
-        <v>10.35079435260168</v>
+        <v>2.506972421880414</v>
       </c>
       <c r="J7">
-        <v>4.246101082134395</v>
+        <v>8.251344694865411</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.73837367843609</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.615121498803685</v>
       </c>
       <c r="N7">
-        <v>11.58876505212265</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>12.51694502470329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.70019135006845</v>
+      </c>
+      <c r="P7">
+        <v>12.45971185850687</v>
+      </c>
+      <c r="Q7">
+        <v>12.73391232782043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.89879429299236</v>
+        <v>10.96235726402137</v>
       </c>
       <c r="C8">
-        <v>14.63094890511925</v>
+        <v>7.355761486020206</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.94960409914896</v>
+        <v>16.16063220988945</v>
       </c>
       <c r="F8">
-        <v>35.16148235708356</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.057620245496788</v>
+        <v>17.65060816885149</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.730878424533355</v>
       </c>
       <c r="I8">
-        <v>10.08163172678598</v>
+        <v>2.585626187396234</v>
       </c>
       <c r="J8">
-        <v>4.190757098684593</v>
+        <v>8.179254970788099</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.57769098635333</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.27267237343893</v>
       </c>
       <c r="N8">
-        <v>11.52633242600443</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.77533143702798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.68895994278801</v>
+      </c>
+      <c r="P8">
+        <v>12.32860019969624</v>
+      </c>
+      <c r="Q8">
+        <v>12.65709943089186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.94676465765499</v>
+        <v>12.52137753534775</v>
       </c>
       <c r="C9">
-        <v>16.79949447652468</v>
+        <v>7.966147613532702</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.06073083764833</v>
+        <v>18.17737519917464</v>
       </c>
       <c r="F9">
-        <v>39.52889149447649</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.044716689731361</v>
+        <v>17.95963431238546</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.13735492594143</v>
       </c>
       <c r="I9">
-        <v>9.669950279485166</v>
+        <v>2.831383859913825</v>
       </c>
       <c r="J9">
-        <v>4.099584816549025</v>
+        <v>8.06216318944985</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.30538908273905</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.44407463856625</v>
       </c>
       <c r="N9">
-        <v>11.43576094709499</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.41207632490644</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.44406543573457</v>
+      </c>
+      <c r="P9">
+        <v>12.08462459588015</v>
+      </c>
+      <c r="Q9">
+        <v>12.563715624398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.9600279473767</v>
+        <v>13.54021292288596</v>
       </c>
       <c r="C10">
-        <v>18.23830360623133</v>
+        <v>8.392706292706567</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>28.21315751044956</v>
+        <v>18.98484128007311</v>
       </c>
       <c r="F10">
-        <v>42.6378501524413</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.03561536888186</v>
+        <v>18.08059016238158</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.396931255599602</v>
       </c>
       <c r="I10">
-        <v>9.454963890019958</v>
+        <v>3.00184273883282</v>
       </c>
       <c r="J10">
-        <v>4.044313300759412</v>
+        <v>7.964778796389231</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.08091579848171</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.22780197175498</v>
       </c>
       <c r="N10">
-        <v>11.39021134878295</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.96283758795706</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.3406463309653</v>
+      </c>
+      <c r="P10">
+        <v>11.92333149137327</v>
+      </c>
+      <c r="Q10">
+        <v>12.46072613463431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.82774911915228</v>
+        <v>14.00809863838708</v>
       </c>
       <c r="C11">
-        <v>18.85989409302931</v>
+        <v>8.50769572926704</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>29.16280626579356</v>
+        <v>14.77876614318215</v>
       </c>
       <c r="F11">
-        <v>44.02838594324782</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.031544459094773</v>
+        <v>16.89516348929602</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.095067119225539</v>
       </c>
       <c r="I11">
-        <v>9.380260876775026</v>
+        <v>3.054259893813417</v>
       </c>
       <c r="J11">
-        <v>4.021995394922224</v>
+        <v>7.743472867448366</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>11.67651383473067</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.55855498840771</v>
       </c>
       <c r="N11">
-        <v>11.37441690112807</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.23194712459572</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.36894137916556</v>
+      </c>
+      <c r="P11">
+        <v>11.94335178292469</v>
+      </c>
+      <c r="Q11">
+        <v>11.93850481089901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.14949482262346</v>
+        <v>14.21682085866051</v>
       </c>
       <c r="C12">
-        <v>19.09059531755538</v>
+        <v>8.492546012419417</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>29.51818872515597</v>
+        <v>11.24554085779899</v>
       </c>
       <c r="F12">
-        <v>44.55146814916902</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.030011732152639</v>
+        <v>15.90675978571318</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.26550344910572</v>
       </c>
       <c r="I12">
-        <v>9.355666399343903</v>
+        <v>3.0619211610499</v>
       </c>
       <c r="J12">
-        <v>4.013977039465876</v>
+        <v>7.58387835477259</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.40726310356875</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.67957463997003</v>
       </c>
       <c r="N12">
-        <v>11.36917698059016</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.33655482371357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.51526533341801</v>
+      </c>
+      <c r="P12">
+        <v>12.00910032527541</v>
+      </c>
+      <c r="Q12">
+        <v>11.53756096294285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.08050408986183</v>
+        <v>14.227247314153</v>
       </c>
       <c r="C13">
-        <v>19.04111695392258</v>
+        <v>8.402645661657449</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>29.44183810878417</v>
+        <v>8.202683618755218</v>
       </c>
       <c r="F13">
-        <v>44.43896816105698</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.030341458275624</v>
+        <v>14.9640666779345</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.550494722385299</v>
       </c>
       <c r="I13">
-        <v>9.360792795617865</v>
+        <v>3.040091483426497</v>
       </c>
       <c r="J13">
-        <v>4.015684227564321</v>
+        <v>7.455980238892698</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.21048163947984</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.6496389850229</v>
       </c>
       <c r="N13">
-        <v>11.37027199125742</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>14.3139050408495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.59557528518882</v>
+      </c>
+      <c r="P13">
+        <v>12.11031126349024</v>
+      </c>
+      <c r="Q13">
+        <v>11.19002829750371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.85435597386008</v>
+        <v>14.14156616495584</v>
       </c>
       <c r="C14">
-        <v>18.87896751105451</v>
+        <v>8.310846722699157</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>29.19212829981751</v>
+        <v>6.724134307318512</v>
       </c>
       <c r="F14">
-        <v>44.07149013874407</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.031418190413865</v>
+        <v>14.32495624093123</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.486017818556304</v>
       </c>
       <c r="I14">
-        <v>9.378161226446625</v>
+        <v>3.012867337883885</v>
       </c>
       <c r="J14">
-        <v>4.021326880959637</v>
+        <v>7.380894621496433</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.10632922901232</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.56018323824389</v>
       </c>
       <c r="N14">
-        <v>11.37397076346777</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>14.24049894223748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.2119218227883</v>
+      </c>
+      <c r="P14">
+        <v>12.1977181194868</v>
+      </c>
+      <c r="Q14">
+        <v>10.97197394299663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.71494519445354</v>
+        <v>14.07288182957408</v>
       </c>
       <c r="C15">
-        <v>18.7790383468652</v>
+        <v>8.278699658219235</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>29.03862432502213</v>
+        <v>6.511265725047117</v>
       </c>
       <c r="F15">
-        <v>43.84594498782303</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>2.032078835751825</v>
+        <v>14.17231364336561</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.700304802324506</v>
       </c>
       <c r="I15">
-        <v>9.389292404662882</v>
+        <v>3.000964927099495</v>
       </c>
       <c r="J15">
-        <v>4.024840387994008</v>
+        <v>7.368283626504754</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.0929414870009</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.50550753974879</v>
       </c>
       <c r="N15">
-        <v>11.37633388135346</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>14.19588833574985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.858104602838646</v>
+      </c>
+      <c r="P15">
+        <v>12.22495128585048</v>
+      </c>
+      <c r="Q15">
+        <v>10.92743297587809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.90235855127852</v>
+        <v>13.64960659716274</v>
       </c>
       <c r="C16">
-        <v>18.19702296907377</v>
+        <v>8.125955765078295</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>28.15050211838189</v>
+        <v>6.557730818740805</v>
       </c>
       <c r="F16">
-        <v>42.54648970803535</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.035882712907575</v>
+        <v>14.290212286962</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.441405630301166</v>
       </c>
       <c r="I16">
-        <v>9.460341989432596</v>
+        <v>2.935076559745315</v>
       </c>
       <c r="J16">
-        <v>4.045830903065174</v>
+        <v>7.434009540799273</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.22483368286852</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.18780897127615</v>
       </c>
       <c r="N16">
-        <v>11.39134543776617</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>13.94562705412292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.740112277977188</v>
+      </c>
+      <c r="P16">
+        <v>12.26081248303706</v>
+      </c>
+      <c r="Q16">
+        <v>11.03832281344311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.39159157430721</v>
+        <v>13.36441975874985</v>
       </c>
       <c r="C17">
-        <v>17.83157672517788</v>
+        <v>8.058184618979331</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>27.59810591551991</v>
+        <v>7.209911069397096</v>
       </c>
       <c r="F17">
-        <v>41.74315803099739</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>2.038233249138797</v>
+        <v>14.71671946097922</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.698423599465367</v>
       </c>
       <c r="I17">
-        <v>9.510101733074814</v>
+        <v>2.898928671092903</v>
       </c>
       <c r="J17">
-        <v>4.059449720546869</v>
+        <v>7.523846178918217</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.37937799566264</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.98886729211009</v>
       </c>
       <c r="N17">
-        <v>11.40183899489293</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>13.79687901441051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.408922097448093</v>
+      </c>
+      <c r="P17">
+        <v>12.24362468368154</v>
+      </c>
+      <c r="Q17">
+        <v>11.23710693669764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.09327733897329</v>
+        <v>13.18341915806807</v>
       </c>
       <c r="C18">
-        <v>17.61827835693229</v>
+        <v>8.043926073183787</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>27.27760148880266</v>
+        <v>9.261051982310747</v>
       </c>
       <c r="F18">
-        <v>41.2788665184511</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.039591813798686</v>
+        <v>15.48392113359572</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.495807467660057</v>
       </c>
       <c r="I18">
-        <v>9.540872206379966</v>
+        <v>2.882327879439673</v>
       </c>
       <c r="J18">
-        <v>4.067547096807689</v>
+        <v>7.648485916716755</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.58343846405875</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.87444422996355</v>
       </c>
       <c r="N18">
-        <v>11.40833623491937</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.71306900811725</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.86156645010578</v>
+      </c>
+      <c r="P18">
+        <v>12.18343216811463</v>
+      </c>
+      <c r="Q18">
+        <v>11.5453187527456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.99149215479254</v>
+        <v>13.07974799315704</v>
       </c>
       <c r="C19">
-        <v>17.54552468116199</v>
+        <v>8.110067790499647</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>27.16860699689428</v>
+        <v>12.73119164300076</v>
       </c>
       <c r="F19">
-        <v>41.12128479124459</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.040052966670572</v>
+        <v>16.43726712917828</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.174753453411522</v>
       </c>
       <c r="I19">
-        <v>9.551648844024312</v>
+        <v>2.893876212433011</v>
       </c>
       <c r="J19">
-        <v>4.070333333854237</v>
+        <v>7.787958657414953</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.80749824770808</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.83899703853673</v>
       </c>
       <c r="N19">
-        <v>11.41061440535784</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.68499120575113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.84363383511373</v>
+      </c>
+      <c r="P19">
+        <v>12.10694598410662</v>
+      </c>
+      <c r="Q19">
+        <v>11.90973862975119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.44643235349392</v>
+        <v>13.24331441989935</v>
       </c>
       <c r="C20">
-        <v>17.87079992244525</v>
+        <v>8.335965168088164</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27.65719728859606</v>
+        <v>18.75081248419233</v>
       </c>
       <c r="F20">
-        <v>41.82890628665457</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.037982355529159</v>
+        <v>17.95148038775674</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.326531275081461</v>
       </c>
       <c r="I20">
-        <v>9.504579580843936</v>
+        <v>2.967735197864493</v>
       </c>
       <c r="J20">
-        <v>4.057972446290586</v>
+        <v>7.975657885859451</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.10421058389879</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.02682000419797</v>
       </c>
       <c r="N20">
-        <v>11.40067393028992</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>13.8125325567712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.09800899143904</v>
+      </c>
+      <c r="P20">
+        <v>11.96906841955056</v>
+      </c>
+      <c r="Q20">
+        <v>12.4493435647191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.92096617722371</v>
+        <v>13.98645414360972</v>
       </c>
       <c r="C21">
-        <v>18.92672132152204</v>
+        <v>8.662425499887712</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>29.26558854889374</v>
+        <v>20.17297995218968</v>
       </c>
       <c r="F21">
-        <v>44.17952201135485</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.031101697705388</v>
+        <v>18.29753807628777</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.553522928002645</v>
       </c>
       <c r="I21">
-        <v>9.372956361593866</v>
+        <v>3.099615744882374</v>
       </c>
       <c r="J21">
-        <v>4.019657521214465</v>
+        <v>7.938456495532144</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11.9970053301768</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.60548529540469</v>
       </c>
       <c r="N21">
-        <v>11.3728639619261</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>14.26198652655058</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.17882078631152</v>
+      </c>
+      <c r="P21">
+        <v>11.83488728443917</v>
+      </c>
+      <c r="Q21">
+        <v>12.46984140071433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.84482274652706</v>
+        <v>14.46666231709691</v>
       </c>
       <c r="C22">
-        <v>19.58956969089598</v>
+        <v>8.844438193095703</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>30.29215601218787</v>
+        <v>20.79801271714431</v>
       </c>
       <c r="F22">
-        <v>45.69550847259218</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.02665571040877</v>
+        <v>18.49719256748223</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.687744493213589</v>
       </c>
       <c r="I22">
-        <v>9.308652273082325</v>
+        <v>3.178536061164466</v>
       </c>
       <c r="J22">
-        <v>3.997154363716514</v>
+        <v>7.911572386992879</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>11.92657145441084</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.96882648549953</v>
       </c>
       <c r="N22">
-        <v>11.35902465453977</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>14.57149231389027</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>17.72048066969698</v>
+      </c>
+      <c r="P22">
+        <v>11.75132120782805</v>
+      </c>
+      <c r="Q22">
+        <v>12.4753150683912</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.35536062547291</v>
+        <v>14.22605614710476</v>
       </c>
       <c r="C23">
-        <v>19.23826922243303</v>
+        <v>8.727778716442506</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>29.74649250424754</v>
+        <v>20.46729680497776</v>
       </c>
       <c r="F23">
-        <v>44.88825414341616</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.029024357444015</v>
+        <v>18.42234350424184</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.61677885410846</v>
       </c>
       <c r="I23">
-        <v>9.340856402786232</v>
+        <v>3.132562061837291</v>
       </c>
       <c r="J23">
-        <v>4.008923005697828</v>
+        <v>7.930673347388417</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.97652031184332</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.77635753055974</v>
       </c>
       <c r="N23">
-        <v>11.36600293023413</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.40485101377556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.43350128550323</v>
+      </c>
+      <c r="P23">
+        <v>11.7942116929049</v>
+      </c>
+      <c r="Q23">
+        <v>12.4848640295906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.42165338129759</v>
+        <v>13.24829811618677</v>
       </c>
       <c r="C24">
-        <v>17.8530770814108</v>
+        <v>8.308611759607293</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>27.63049118838945</v>
+        <v>19.16411614116966</v>
       </c>
       <c r="F24">
-        <v>41.79014711098009</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.038095761988102</v>
+        <v>18.10820173812675</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.341137568826977</v>
       </c>
       <c r="I24">
-        <v>9.507069436793273</v>
+        <v>2.961649542689346</v>
       </c>
       <c r="J24">
-        <v>4.058639490026745</v>
+        <v>7.999790399746355</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.15229625147395</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.01829316790697</v>
       </c>
       <c r="N24">
-        <v>11.4011992120912</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>13.8054502750782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.30235062780333</v>
+      </c>
+      <c r="P24">
+        <v>11.96253229208819</v>
+      </c>
+      <c r="Q24">
+        <v>12.51172172986566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.16220249696628</v>
+        <v>12.09795267541375</v>
       </c>
       <c r="C25">
-        <v>16.24012679781992</v>
+        <v>7.837053641149725</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.24211537153732</v>
+        <v>17.65359595254531</v>
       </c>
       <c r="F25">
-        <v>38.36388068068167</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.048136842578595</v>
+        <v>17.81588467333406</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.030014095253626</v>
       </c>
       <c r="I25">
-        <v>9.767261771465058</v>
+        <v>2.771575028104273</v>
       </c>
       <c r="J25">
-        <v>4.122281123192708</v>
+        <v>8.08433969713993</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.35709249837418</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.14001345696757</v>
       </c>
       <c r="N25">
-        <v>11.4566955278632</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.2254673847413</v>
+        <v>14.9893297157064</v>
+      </c>
+      <c r="P25">
+        <v>12.1508685403719</v>
+      </c>
+      <c r="Q25">
+        <v>12.56465306457692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_27/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.20898336765293</v>
+        <v>11.13046812013834</v>
       </c>
       <c r="C2">
-        <v>7.420039113578716</v>
+        <v>7.371040054278126</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.45506931640725</v>
+        <v>16.46626233897141</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>17.72198834396051</v>
+        <v>16.63262562806553</v>
       </c>
       <c r="H2">
-        <v>1.789690908501408</v>
+        <v>1.800535646882267</v>
       </c>
       <c r="I2">
-        <v>2.617792520735359</v>
+        <v>2.672872298456514</v>
       </c>
       <c r="J2">
-        <v>8.166826442312805</v>
+        <v>8.564431802489382</v>
       </c>
       <c r="K2">
-        <v>12.55086618391109</v>
+        <v>12.30465659264812</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.8667790812458</v>
       </c>
       <c r="M2">
-        <v>10.4432079303899</v>
+        <v>7.309092759911662</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.944765325912</v>
+        <v>10.43931260726634</v>
       </c>
       <c r="P2">
-        <v>12.292934905473</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.65448786670765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>13.95498259902937</v>
+      </c>
+      <c r="R2">
+        <v>12.25511213816474</v>
+      </c>
+      <c r="S2">
+        <v>12.4959286819483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.53369333518414</v>
+        <v>10.49761504886221</v>
       </c>
       <c r="C3">
-        <v>7.158433588809274</v>
+        <v>7.039693686101012</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.58819349516139</v>
+        <v>15.60763657913873</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>17.63277519477363</v>
+        <v>16.60663796605557</v>
       </c>
       <c r="H3">
-        <v>1.618262839168907</v>
+        <v>1.633560183291783</v>
       </c>
       <c r="I3">
-        <v>2.514243587888289</v>
+        <v>2.580575134272365</v>
       </c>
       <c r="J3">
-        <v>8.220468818607454</v>
+        <v>8.596628791593798</v>
       </c>
       <c r="K3">
-        <v>12.6716736901619</v>
+        <v>12.43223038168863</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.02865025965465</v>
       </c>
       <c r="M3">
-        <v>9.940356096674298</v>
+        <v>7.376072452629599</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.18943766165499</v>
+        <v>9.940055427236832</v>
       </c>
       <c r="P3">
-        <v>12.39455096378238</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.70777408965919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.20161830414311</v>
+      </c>
+      <c r="R3">
+        <v>12.34529609191589</v>
+      </c>
+      <c r="S3">
+        <v>12.56262075348727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.09321379195107</v>
+        <v>10.08495469670599</v>
       </c>
       <c r="C4">
-        <v>6.994610361981336</v>
+        <v>6.831656065258246</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.03016197888619</v>
+        <v>15.05522623813587</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>17.58685227455455</v>
+        <v>16.60010160162834</v>
       </c>
       <c r="H4">
-        <v>1.613416989988062</v>
+        <v>1.59485605978304</v>
       </c>
       <c r="I4">
-        <v>2.495666763600904</v>
+        <v>2.522455966618548</v>
       </c>
       <c r="J4">
-        <v>8.255450654244477</v>
+        <v>8.617272007763797</v>
       </c>
       <c r="K4">
-        <v>12.74875829924621</v>
+        <v>12.51262767482421</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.13279508845651</v>
       </c>
       <c r="M4">
-        <v>9.617115031281241</v>
+        <v>7.434136447247547</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.70303012479215</v>
+        <v>9.619193666863826</v>
       </c>
       <c r="P4">
-        <v>12.45877888057298</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.7449804220931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.7164900500588</v>
+      </c>
+      <c r="R4">
+        <v>12.40272417069857</v>
+      </c>
+      <c r="S4">
+        <v>12.60715042925457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.902482003870718</v>
+        <v>9.906053395803461</v>
       </c>
       <c r="C5">
-        <v>6.933041272502918</v>
+        <v>6.75222224852564</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.79616402316367</v>
+        <v>14.82367138160259</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>17.56142144260851</v>
+        <v>16.5906299653572</v>
       </c>
       <c r="H5">
-        <v>1.66023040361017</v>
+        <v>1.640468404318691</v>
       </c>
       <c r="I5">
-        <v>2.527702985530222</v>
+        <v>2.499435993946799</v>
       </c>
       <c r="J5">
-        <v>8.268925315623232</v>
+        <v>8.624598307216248</v>
       </c>
       <c r="K5">
-        <v>12.77766077163485</v>
+        <v>12.54272189405753</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.17303645628803</v>
       </c>
       <c r="M5">
-        <v>9.481786752579591</v>
+        <v>7.46074671685458</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.49922011394871</v>
+        <v>9.484886814348732</v>
       </c>
       <c r="P5">
-        <v>12.48556370622292</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.75786730228101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.51322332114824</v>
+      </c>
+      <c r="R5">
+        <v>12.42681919481856</v>
+      </c>
+      <c r="S5">
+        <v>12.62280950258842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.864593513501728</v>
+        <v>9.870211998162576</v>
       </c>
       <c r="C6">
-        <v>6.930070237692163</v>
+        <v>6.746834252156543</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.75662230206187</v>
+        <v>14.78455158636885</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>17.54647211273116</v>
+        <v>16.57810620516543</v>
       </c>
       <c r="H6">
-        <v>1.668231355014338</v>
+        <v>1.648264093150979</v>
       </c>
       <c r="I6">
-        <v>2.537193099843596</v>
+        <v>2.497119714942065</v>
       </c>
       <c r="J6">
-        <v>8.269620974550293</v>
+        <v>8.624234636870415</v>
       </c>
       <c r="K6">
-        <v>12.77855814794255</v>
+        <v>12.54386422077821</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.17566089105382</v>
       </c>
       <c r="M6">
-        <v>9.459034828648432</v>
+        <v>7.46389142598612</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.46500386080701</v>
+        <v>9.462314261210683</v>
       </c>
       <c r="P6">
-        <v>12.49022842529885</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.75595354756101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.47909992941064</v>
+      </c>
+      <c r="R6">
+        <v>12.43107627945553</v>
+      </c>
+      <c r="S6">
+        <v>12.62135720596667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.07508930746275</v>
+        <v>10.06450119390673</v>
       </c>
       <c r="C7">
-        <v>7.013509921349979</v>
+        <v>6.846477567143563</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.0262186954813</v>
+        <v>15.0525245946833</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>17.55692057259462</v>
+        <v>16.63903521986164</v>
       </c>
       <c r="H7">
-        <v>1.614483743253043</v>
+        <v>1.596225454369776</v>
       </c>
       <c r="I7">
-        <v>2.506972421880414</v>
+        <v>2.525432518688405</v>
       </c>
       <c r="J7">
-        <v>8.251344694865411</v>
+        <v>8.587202176979421</v>
       </c>
       <c r="K7">
-        <v>12.73837367843609</v>
+        <v>12.49867609205221</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.11851167013487</v>
       </c>
       <c r="M7">
-        <v>9.615121498803685</v>
+        <v>7.428204522208332</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.70019135006845</v>
+        <v>9.613599986844262</v>
       </c>
       <c r="P7">
-        <v>12.45971185850687</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.73391232782043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.71176317810479</v>
+      </c>
+      <c r="R7">
+        <v>12.40413772916904</v>
+      </c>
+      <c r="S7">
+        <v>12.58927057396558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.96235726402137</v>
+        <v>10.8901445559059</v>
       </c>
       <c r="C8">
-        <v>7.355761486020206</v>
+        <v>7.267869714173507</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.16063220988945</v>
+        <v>16.17840759623081</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>17.65060816885149</v>
+        <v>16.81291782306027</v>
       </c>
       <c r="H8">
-        <v>1.730878424533355</v>
+        <v>1.742263432135101</v>
       </c>
       <c r="I8">
-        <v>2.585626187396234</v>
+        <v>2.64431156316674</v>
       </c>
       <c r="J8">
-        <v>8.179254970788099</v>
+        <v>8.486165047570891</v>
       </c>
       <c r="K8">
-        <v>12.57769098635333</v>
+        <v>12.32209874363919</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.89748035842011</v>
       </c>
       <c r="M8">
-        <v>10.27267237343893</v>
+        <v>7.31318480894126</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.68895994278801</v>
+        <v>10.25861103396664</v>
       </c>
       <c r="P8">
-        <v>12.32860019969624</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.65709943089186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.69395858440946</v>
+      </c>
+      <c r="R8">
+        <v>12.28869811404473</v>
+      </c>
+      <c r="S8">
+        <v>12.48070597752905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.52137753534775</v>
+        <v>12.35152587703394</v>
       </c>
       <c r="C9">
-        <v>7.966147613532702</v>
+        <v>8.038166969909856</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.17737519917464</v>
+        <v>18.178079322686</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>17.95963431238546</v>
+        <v>17.02985960089875</v>
       </c>
       <c r="H9">
-        <v>2.13735492594143</v>
+        <v>2.137892959073679</v>
       </c>
       <c r="I9">
-        <v>2.831383859913825</v>
+        <v>2.862617954793353</v>
       </c>
       <c r="J9">
-        <v>8.06216318944985</v>
+        <v>8.392962367445104</v>
       </c>
       <c r="K9">
-        <v>12.30538908273905</v>
+        <v>12.02455459581276</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.53282191684504</v>
       </c>
       <c r="M9">
-        <v>11.44407463856625</v>
+        <v>7.241949392215474</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.44406543573457</v>
+        <v>11.42001991896758</v>
       </c>
       <c r="P9">
-        <v>12.08462459588015</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.563715624398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.44364243954779</v>
+      </c>
+      <c r="R9">
+        <v>12.07559113397986</v>
+      </c>
+      <c r="S9">
+        <v>12.34240370440043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.54021292288596</v>
+        <v>13.29850471703275</v>
       </c>
       <c r="C10">
-        <v>8.392706292706567</v>
+        <v>8.541297609382706</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.98484128007311</v>
+        <v>18.98113989880078</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>18.08059016238158</v>
+        <v>17.4942298132285</v>
       </c>
       <c r="H10">
-        <v>2.396931255599602</v>
+        <v>2.388614062116832</v>
       </c>
       <c r="I10">
-        <v>3.00184273883282</v>
+        <v>3.013483087989701</v>
       </c>
       <c r="J10">
-        <v>7.964778796389231</v>
+        <v>8.175138439945588</v>
       </c>
       <c r="K10">
-        <v>12.08091579848171</v>
+        <v>11.76173332289337</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.25261268047545</v>
       </c>
       <c r="M10">
-        <v>12.22780197175498</v>
+        <v>7.223530012495438</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.3406463309653</v>
+        <v>12.18001555203615</v>
       </c>
       <c r="P10">
-        <v>11.92333149137327</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.46072613463431</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.32791937707704</v>
+      </c>
+      <c r="R10">
+        <v>11.94414636803177</v>
+      </c>
+      <c r="S10">
+        <v>12.16720022928266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.00809863838708</v>
+        <v>13.74665477008065</v>
       </c>
       <c r="C11">
-        <v>8.50769572926704</v>
+        <v>8.595520431410172</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.77876614318215</v>
+        <v>14.7800973963067</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>16.89516348929602</v>
+        <v>17.18519989987991</v>
       </c>
       <c r="H11">
-        <v>3.095067119225539</v>
+        <v>3.085445869321537</v>
       </c>
       <c r="I11">
-        <v>3.054259893813417</v>
+        <v>3.059268998496576</v>
       </c>
       <c r="J11">
-        <v>7.743472867448366</v>
+        <v>7.777093592112032</v>
       </c>
       <c r="K11">
-        <v>11.67651383473067</v>
+        <v>11.36019715730739</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.961323024284747</v>
       </c>
       <c r="M11">
-        <v>12.55855498840771</v>
+        <v>6.946977952561086</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.36894137916556</v>
+        <v>12.47195773429121</v>
       </c>
       <c r="P11">
-        <v>11.94335178292469</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.93850481089901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.33769176556621</v>
+      </c>
+      <c r="R11">
+        <v>11.99983307495489</v>
+      </c>
+      <c r="S11">
+        <v>11.5954666212125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.21682085866051</v>
+        <v>13.96044802981677</v>
       </c>
       <c r="C12">
-        <v>8.492546012419417</v>
+        <v>8.528118370489329</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.24554085779899</v>
+        <v>11.24233361195434</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>15.90675978571318</v>
+        <v>16.59605778101621</v>
       </c>
       <c r="H12">
-        <v>4.26550344910572</v>
+        <v>4.258090791608264</v>
       </c>
       <c r="I12">
-        <v>3.0619211610499</v>
+        <v>3.064446750645537</v>
       </c>
       <c r="J12">
-        <v>7.58387835477259</v>
+        <v>7.610251849125202</v>
       </c>
       <c r="K12">
-        <v>11.40726310356875</v>
+        <v>11.11724012939562</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.809452084809545</v>
       </c>
       <c r="M12">
-        <v>12.67957463997003</v>
+        <v>6.738834009811477</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.51526533341801</v>
+        <v>12.57521980781569</v>
       </c>
       <c r="P12">
-        <v>12.00910032527541</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.53756096294285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.4765398940778</v>
+      </c>
+      <c r="R12">
+        <v>12.08676293934534</v>
+      </c>
+      <c r="S12">
+        <v>11.19775869403847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.227247314153</v>
+        <v>14.00074201062862</v>
       </c>
       <c r="C13">
-        <v>8.402645661657449</v>
+        <v>8.401251639404398</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.202683618755218</v>
+        <v>8.18365067545558</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>14.9640666779345</v>
+        <v>15.52936775826706</v>
       </c>
       <c r="H13">
-        <v>5.550494722385299</v>
+        <v>5.545596143921453</v>
       </c>
       <c r="I13">
-        <v>3.040091483426497</v>
+        <v>3.045354980119744</v>
       </c>
       <c r="J13">
-        <v>7.455980238892698</v>
+        <v>7.570543783506237</v>
       </c>
       <c r="K13">
-        <v>11.21048163947984</v>
+        <v>10.96831745176989</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.729907608534763</v>
       </c>
       <c r="M13">
-        <v>12.6496389850229</v>
+        <v>6.570836043728725</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.59557528518882</v>
+        <v>12.54984402814953</v>
       </c>
       <c r="P13">
-        <v>12.11031126349024</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.19002829750371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.56079975868026</v>
+      </c>
+      <c r="R13">
+        <v>12.19170080069898</v>
+      </c>
+      <c r="S13">
+        <v>10.90430420001222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.14156616495584</v>
+        <v>13.94741253680881</v>
       </c>
       <c r="C14">
-        <v>8.310846722699157</v>
+        <v>8.289830848483332</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.724134307318512</v>
+        <v>6.69088583841219</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>14.32495624093123</v>
+        <v>14.58547206974799</v>
       </c>
       <c r="H14">
-        <v>6.486017818556304</v>
+        <v>6.482661859848281</v>
       </c>
       <c r="I14">
-        <v>3.012867337883885</v>
+        <v>3.022687405232793</v>
       </c>
       <c r="J14">
-        <v>7.380894621496433</v>
+        <v>7.581549420470301</v>
       </c>
       <c r="K14">
-        <v>11.10632922901232</v>
+        <v>10.90309153725829</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.699999596560749</v>
       </c>
       <c r="M14">
-        <v>12.56018323824389</v>
+        <v>6.473961535097408</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.2119218227883</v>
+        <v>12.47347107782537</v>
       </c>
       <c r="P14">
-        <v>12.1977181194868</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.97197394299663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.184927117894283</v>
+      </c>
+      <c r="R14">
+        <v>12.27207431785603</v>
+      </c>
+      <c r="S14">
+        <v>10.74203955363953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.07288182957408</v>
+        <v>13.89169455516131</v>
       </c>
       <c r="C15">
-        <v>8.278699658219235</v>
+        <v>8.255458272923564</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.511265725047117</v>
+        <v>6.476401117419242</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>14.17231364336561</v>
+        <v>14.27146634769633</v>
       </c>
       <c r="H15">
-        <v>6.700304802324506</v>
+        <v>6.697437687648433</v>
       </c>
       <c r="I15">
-        <v>3.000964927099495</v>
+        <v>3.013522323966042</v>
       </c>
       <c r="J15">
-        <v>7.368283626504754</v>
+        <v>7.601491591884457</v>
       </c>
       <c r="K15">
-        <v>11.0929414870009</v>
+        <v>10.90168703116347</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.7018560597401</v>
       </c>
       <c r="M15">
-        <v>12.50550753974879</v>
+        <v>6.457418312344461</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.858104602838646</v>
+        <v>12.42629142794563</v>
       </c>
       <c r="P15">
-        <v>12.22495128585048</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.92743297587809</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.835043512924003</v>
+      </c>
+      <c r="R15">
+        <v>12.29368752820961</v>
+      </c>
+      <c r="S15">
+        <v>10.71848167276666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.64960659716274</v>
+        <v>13.5123751653841</v>
       </c>
       <c r="C16">
-        <v>8.125955765078295</v>
+        <v>8.117926682184393</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.557730818740805</v>
+        <v>6.536219083019377</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>14.290212286962</v>
+        <v>13.70344754787654</v>
       </c>
       <c r="H16">
-        <v>6.441405630301166</v>
+        <v>6.440193228518241</v>
       </c>
       <c r="I16">
-        <v>2.935076559745315</v>
+        <v>2.958875823581121</v>
       </c>
       <c r="J16">
-        <v>7.434009540799273</v>
+        <v>7.789774777084325</v>
       </c>
       <c r="K16">
-        <v>11.22483368286852</v>
+        <v>11.05444695896706</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.80301286426792</v>
       </c>
       <c r="M16">
-        <v>12.18780897127615</v>
+        <v>6.538799520229268</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8.740112277977188</v>
+        <v>12.14462687767437</v>
       </c>
       <c r="P16">
-        <v>12.26081248303706</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.03832281344311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.733726646159583</v>
+      </c>
+      <c r="R16">
+        <v>12.29796040410466</v>
+      </c>
+      <c r="S16">
+        <v>10.89160521269059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.36441975874985</v>
+        <v>13.24022065033362</v>
       </c>
       <c r="C17">
-        <v>8.058184618979331</v>
+        <v>8.065834791516375</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.209911069397096</v>
+        <v>7.197470697031718</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>14.71671946097922</v>
+        <v>13.85361056927703</v>
       </c>
       <c r="H17">
-        <v>5.698423599465367</v>
+        <v>5.697968872907275</v>
       </c>
       <c r="I17">
-        <v>2.898928671092903</v>
+        <v>2.928597176131753</v>
       </c>
       <c r="J17">
-        <v>7.523846178918217</v>
+        <v>7.935521877001372</v>
       </c>
       <c r="K17">
-        <v>11.37937799566264</v>
+        <v>11.2055133146991</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.905862198359566</v>
       </c>
       <c r="M17">
-        <v>11.98886729211009</v>
+        <v>6.644296994435678</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.408922097448093</v>
+        <v>11.96169819508542</v>
       </c>
       <c r="P17">
-        <v>12.24362468368154</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.23710693669764</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.409406113019676</v>
+      </c>
+      <c r="R17">
+        <v>12.26545712820354</v>
+      </c>
+      <c r="S17">
+        <v>11.1052409565381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.18341915806807</v>
+        <v>13.05090007732158</v>
       </c>
       <c r="C18">
-        <v>8.043926073183787</v>
+        <v>8.078676535297021</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.261051982310747</v>
+        <v>9.253043038156296</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>15.48392113359572</v>
+        <v>14.49094191600947</v>
       </c>
       <c r="H18">
-        <v>4.495807467660057</v>
+        <v>4.495625270449221</v>
       </c>
       <c r="I18">
-        <v>2.882327879439673</v>
+        <v>2.913064950829054</v>
       </c>
       <c r="J18">
-        <v>7.648485916716755</v>
+        <v>8.076581827601251</v>
       </c>
       <c r="K18">
-        <v>11.58343846405875</v>
+        <v>11.3895225864893</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.03439064462103</v>
       </c>
       <c r="M18">
-        <v>11.87444422996355</v>
+        <v>6.790957922072996</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.86156645010578</v>
+        <v>11.85399658563067</v>
       </c>
       <c r="P18">
-        <v>12.18343216811463</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.5453187527456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.86442681545991</v>
+      </c>
+      <c r="R18">
+        <v>12.19733179265639</v>
+      </c>
+      <c r="S18">
+        <v>11.40215987445202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.07974799315704</v>
+        <v>12.92442603577534</v>
       </c>
       <c r="C19">
-        <v>8.110067790499647</v>
+        <v>8.185452371020819</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.73119164300076</v>
+        <v>12.72438192561611</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>16.43726712917828</v>
+        <v>15.37894417744107</v>
       </c>
       <c r="H19">
-        <v>3.174753453411522</v>
+        <v>3.174214679221416</v>
       </c>
       <c r="I19">
-        <v>2.893876212433011</v>
+        <v>2.92414673445486</v>
       </c>
       <c r="J19">
-        <v>7.787958657414953</v>
+        <v>8.209079277910318</v>
       </c>
       <c r="K19">
-        <v>11.80749824770808</v>
+        <v>11.58267039377758</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.17038542394381</v>
       </c>
       <c r="M19">
-        <v>11.83899703853673</v>
+        <v>6.955576087593957</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.84363383511373</v>
+        <v>11.81995008409721</v>
       </c>
       <c r="P19">
-        <v>12.10694598410662</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.90973862975119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.84640383437131</v>
+      </c>
+      <c r="R19">
+        <v>12.1165554844774</v>
+      </c>
+      <c r="S19">
+        <v>11.73910475304228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.24331441989935</v>
+        <v>13.02769288157158</v>
       </c>
       <c r="C20">
-        <v>8.335965168088164</v>
+        <v>8.485121541666816</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>18.75081248419233</v>
+        <v>18.74453823127888</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>17.95148038775674</v>
+        <v>17.0252016726041</v>
       </c>
       <c r="H20">
-        <v>2.326531275081461</v>
+        <v>2.321448783401285</v>
       </c>
       <c r="I20">
-        <v>2.967735197864493</v>
+        <v>2.989062930369411</v>
       </c>
       <c r="J20">
-        <v>7.975657885859451</v>
+        <v>8.301957585072815</v>
       </c>
       <c r="K20">
-        <v>12.10421058389879</v>
+        <v>11.81092363766939</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.31063415520022</v>
       </c>
       <c r="M20">
-        <v>12.02682000419797</v>
+        <v>7.206522093173294</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.09800899143904</v>
+        <v>11.9958755721583</v>
       </c>
       <c r="P20">
-        <v>11.96906841955056</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.4493435647191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.0938625035291</v>
+      </c>
+      <c r="R20">
+        <v>11.97995152008933</v>
+      </c>
+      <c r="S20">
+        <v>12.20072182597768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.98645414360972</v>
+        <v>13.67506851965142</v>
       </c>
       <c r="C21">
-        <v>8.662425499887712</v>
+        <v>8.790860112662312</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.17297995218968</v>
+        <v>20.18367010656961</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>18.29753807628777</v>
+        <v>18.96206213467065</v>
       </c>
       <c r="H21">
-        <v>2.553522928002645</v>
+        <v>2.537055276506503</v>
       </c>
       <c r="I21">
-        <v>3.099615744882374</v>
+        <v>3.099210644795137</v>
       </c>
       <c r="J21">
-        <v>7.938456495532144</v>
+        <v>7.797753249710644</v>
       </c>
       <c r="K21">
-        <v>11.9970053301768</v>
+        <v>11.5956359322924</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.09986422424697</v>
       </c>
       <c r="M21">
-        <v>12.60548529540469</v>
+        <v>7.195261920890651</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.17882078631152</v>
+        <v>12.50216648557186</v>
       </c>
       <c r="P21">
-        <v>11.83488728443917</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.46984140071433</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.13769371685307</v>
+      </c>
+      <c r="R21">
+        <v>11.88361683070352</v>
+      </c>
+      <c r="S21">
+        <v>12.02673810102422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.46666231709691</v>
+        <v>14.09468178273389</v>
       </c>
       <c r="C22">
-        <v>8.844438193095703</v>
+        <v>8.95022990788789</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>20.79801271714431</v>
+        <v>20.82166656976627</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>18.49719256748223</v>
+        <v>20.34261883486043</v>
       </c>
       <c r="H22">
-        <v>2.687744493213589</v>
+        <v>2.664108767205698</v>
       </c>
       <c r="I22">
-        <v>3.178536061164466</v>
+        <v>3.163173845529848</v>
       </c>
       <c r="J22">
-        <v>7.911572386992879</v>
+        <v>7.536811265035682</v>
       </c>
       <c r="K22">
-        <v>11.92657145441084</v>
+        <v>11.44843155332272</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.966040555425364</v>
       </c>
       <c r="M22">
-        <v>12.96882648549953</v>
+        <v>7.190482867676792</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.72048066969698</v>
+        <v>12.81637917271552</v>
       </c>
       <c r="P22">
-        <v>11.75132120782805</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.4753150683912</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>17.6542544235159</v>
+      </c>
+      <c r="R22">
+        <v>11.82821055033168</v>
+      </c>
+      <c r="S22">
+        <v>11.89371621293774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.22605614710476</v>
+        <v>13.89123727743252</v>
       </c>
       <c r="C23">
-        <v>8.727778716442506</v>
+        <v>8.855929630645521</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>20.46729680497776</v>
+        <v>20.48113792564373</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>18.42234350424184</v>
+        <v>19.44586990444663</v>
       </c>
       <c r="H23">
-        <v>2.61677885410846</v>
+        <v>2.597463727837731</v>
       </c>
       <c r="I23">
-        <v>3.132562061837291</v>
+        <v>3.124504741860732</v>
       </c>
       <c r="J23">
-        <v>7.930673347388417</v>
+        <v>7.704305679245335</v>
       </c>
       <c r="K23">
-        <v>11.97652031184332</v>
+        <v>11.54765452574514</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.04866979214319</v>
       </c>
       <c r="M23">
-        <v>12.77635753055974</v>
+        <v>7.21307541609514</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.43350128550323</v>
+        <v>12.65739901937272</v>
       </c>
       <c r="P23">
-        <v>11.7942116929049</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.4848640295906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.38437198073607</v>
+      </c>
+      <c r="R23">
+        <v>11.85300793723569</v>
+      </c>
+      <c r="S23">
+        <v>11.99491334294382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.24829811618677</v>
+        <v>13.03084123586881</v>
       </c>
       <c r="C24">
-        <v>8.308611759607293</v>
+        <v>8.459757421038873</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.16411614116966</v>
+        <v>19.15771473367201</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>18.10820173812675</v>
+        <v>17.16625833514627</v>
       </c>
       <c r="H24">
-        <v>2.341137568826977</v>
+        <v>2.336016374783535</v>
       </c>
       <c r="I24">
-        <v>2.961649542689346</v>
+        <v>2.98079945883837</v>
       </c>
       <c r="J24">
-        <v>7.999790399746355</v>
+        <v>8.327490756016696</v>
       </c>
       <c r="K24">
-        <v>12.15229625147395</v>
+        <v>11.8543526456039</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.34147725184415</v>
       </c>
       <c r="M24">
-        <v>12.01829316790697</v>
+        <v>7.242967329149233</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.30235062780333</v>
+        <v>11.98789266938781</v>
       </c>
       <c r="P24">
-        <v>11.96253229208819</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.51172172986566</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.29843004014406</v>
+      </c>
+      <c r="R24">
+        <v>11.97170694096442</v>
+      </c>
+      <c r="S24">
+        <v>12.26043264728509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.09795267541375</v>
+        <v>11.9564265519487</v>
       </c>
       <c r="C25">
-        <v>7.837053641149725</v>
+        <v>7.876767268666882</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.65359595254531</v>
+        <v>17.65699656699354</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>17.81588467333406</v>
+        <v>16.8104207745247</v>
       </c>
       <c r="H25">
-        <v>2.030014095253626</v>
+        <v>2.033839899260146</v>
       </c>
       <c r="I25">
-        <v>2.771575028104273</v>
+        <v>2.812284220931382</v>
       </c>
       <c r="J25">
-        <v>8.08433969713993</v>
+        <v>8.445300882044203</v>
       </c>
       <c r="K25">
-        <v>12.35709249837418</v>
+        <v>12.09022309027255</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.61718711148126</v>
       </c>
       <c r="M25">
-        <v>11.14001345696757</v>
+        <v>7.236182029952914</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.9893297157064</v>
+        <v>11.1231135919316</v>
       </c>
       <c r="P25">
-        <v>12.1508685403719</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.56465306457692</v>
+        <v>14.99265977869715</v>
+      </c>
+      <c r="R25">
+        <v>12.1327683275996</v>
+      </c>
+      <c r="S25">
+        <v>12.36654969422545</v>
       </c>
     </row>
   </sheetData>
